--- a/Nevada/WaterAllocation/NV_POD_Allocation Schema Mapping to WaDE_QA.xlsx
+++ b/Nevada/WaterAllocation/NV_POD_Allocation Schema Mapping to WaDE_QA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\Nevada\WaterAllocation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05864D58-CD63-49C9-B9F4-68B6C236CA85}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2038B6CF-780E-41D3-AAA0-4B0BEAA21F8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" tabRatio="714" activeTab="6" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" tabRatio="714" activeTab="3" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping Notes" sheetId="10" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1078" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1078" uniqueCount="323">
   <si>
     <t>AllocationAmount</t>
   </si>
@@ -1007,6 +1007,9 @@
   </si>
   <si>
     <t>WSWC defined owner tag.</t>
+  </si>
+  <si>
+    <t>https://github.com/WSWCWaterDataExchange/MappingStatesDataToWaDE2.0/tree/master/Nevada</t>
   </si>
 </sst>
 </file>
@@ -3358,8 +3361,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E8BA2FE-2555-4166-A4DF-0203EE1C77D7}">
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7:G12"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3558,7 +3561,7 @@
         <v>39</v>
       </c>
       <c r="E7" s="89" t="s">
-        <v>256</v>
+        <v>322</v>
       </c>
       <c r="F7" s="20" t="s">
         <v>39</v>
@@ -3764,11 +3767,8 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A17:A25">
     <sortCondition ref="A17:A25"/>
   </sortState>
-  <hyperlinks>
-    <hyperlink ref="E7" r:id="rId1" xr:uid="{9365CA7C-F7AD-5643-961A-EE46A9482AD2}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4758,7 +4758,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B91B1FF-D207-4871-B787-27544A9D3030}">
   <dimension ref="A1:P46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="A42" sqref="A42:XFD42"/>
     </sheetView>
   </sheetViews>

--- a/Nevada/WaterAllocation/NV_POD_Allocation Schema Mapping to WaDE_QA.xlsx
+++ b/Nevada/WaterAllocation/NV_POD_Allocation Schema Mapping to WaDE_QA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\Nevada\WaterAllocation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2038B6CF-780E-41D3-AAA0-4B0BEAA21F8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0DCC16A-18B5-4B0B-BAA4-6000CB359993}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" tabRatio="714" activeTab="3" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
+    <workbookView xWindow="-23148" yWindow="1692" windowWidth="23256" windowHeight="12456" tabRatio="714" activeTab="5" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping Notes" sheetId="10" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1078" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1078" uniqueCount="322">
   <si>
     <t>AllocationAmount</t>
   </si>
@@ -805,9 +805,6 @@
     <t>Diversion Mapping</t>
   </si>
   <si>
-    <t>NVDWR_DiversionTracking</t>
-  </si>
-  <si>
     <t>Nevada Diversion Mapping</t>
   </si>
   <si>
@@ -817,9 +814,6 @@
     <t xml:space="preserve">Data was downloaded and stored in google drive.  </t>
   </si>
   <si>
-    <t>NVDWR_AllocationAll</t>
-  </si>
-  <si>
     <t>NVDWR</t>
   </si>
   <si>
@@ -883,15 +877,9 @@
     <t>bmcmenamy@water.nv.gov</t>
   </si>
   <si>
-    <t>NVDWR_Allocation All</t>
-  </si>
-  <si>
     <t>Unspecified</t>
   </si>
   <si>
-    <t>NVDWR_Diversion Tracking</t>
-  </si>
-  <si>
     <t>1) Added the following terms to CVs.SiteType: Storage, Other Surface Water,Geothermal, Other Ground Water, Effluent.</t>
   </si>
   <si>
@@ -988,9 +976,6 @@
     <t>Create Custom WaDE Water Source ID</t>
   </si>
   <si>
-    <t>Create Custom WaDE Site ID</t>
-  </si>
-  <si>
     <t>"NVwr_S" + counter starting at 1</t>
   </si>
   <si>
@@ -1010,6 +995,18 @@
   </si>
   <si>
     <t>https://github.com/WSWCWaterDataExchange/MappingStatesDataToWaDE2.0/tree/master/Nevada</t>
+  </si>
+  <si>
+    <t>NVwr_M1</t>
+  </si>
+  <si>
+    <t>NVwr_V1</t>
+  </si>
+  <si>
+    <t>NVwr_O1</t>
+  </si>
+  <si>
+    <t>Create Custom WaDE Site ID, use index</t>
   </si>
 </sst>
 </file>
@@ -2489,7 +2486,7 @@
         <v>245</v>
       </c>
       <c r="B2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -2512,32 +2509,32 @@
         <v>247</v>
       </c>
       <c r="B13" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B14" s="91" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B15" s="91" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
   </sheetData>
@@ -2550,7 +2547,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8:H9"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2653,7 +2650,7 @@
         <v>39</v>
       </c>
       <c r="E4" s="61" t="s">
-        <v>282</v>
+        <v>318</v>
       </c>
       <c r="F4" s="46" t="s">
         <v>39</v>
@@ -2843,7 +2840,7 @@
         <v>39</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F10" s="20" t="s">
         <v>39</v>
@@ -2875,7 +2872,7 @@
         <v>39</v>
       </c>
       <c r="E11" s="78" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F11" s="20" t="s">
         <v>39</v>
@@ -2938,8 +2935,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78F86677-A939-4892-ADA0-492C09897DFD}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView topLeftCell="A4" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3042,7 +3039,7 @@
         <v>39</v>
       </c>
       <c r="E4" s="46" t="s">
-        <v>280</v>
+        <v>319</v>
       </c>
       <c r="F4" s="46" t="s">
         <v>39</v>
@@ -3361,8 +3358,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E8BA2FE-2555-4166-A4DF-0203EE1C77D7}">
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView topLeftCell="A2" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3465,7 +3462,7 @@
         <v>39</v>
       </c>
       <c r="E4" s="44" t="s">
-        <v>259</v>
+        <v>320</v>
       </c>
       <c r="F4" s="46" t="s">
         <v>39</v>
@@ -3497,7 +3494,7 @@
         <v>39</v>
       </c>
       <c r="E5" s="87" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F5" s="20" t="s">
         <v>39</v>
@@ -3529,7 +3526,7 @@
         <v>39</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F6" s="20" t="s">
         <v>39</v>
@@ -3561,7 +3558,7 @@
         <v>39</v>
       </c>
       <c r="E7" s="89" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="F7" s="20" t="s">
         <v>39</v>
@@ -3593,7 +3590,7 @@
         <v>39</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F8" s="20" t="s">
         <v>39</v>
@@ -3625,7 +3622,7 @@
         <v>39</v>
       </c>
       <c r="E9" s="82" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F9" s="20" t="s">
         <v>39</v>
@@ -3657,7 +3654,7 @@
         <v>39</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F10" s="20" t="s">
         <v>39</v>
@@ -3689,7 +3686,7 @@
         <v>39</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F11" s="20" t="s">
         <v>39</v>
@@ -3721,7 +3718,7 @@
         <v>39</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F12" s="20" t="s">
         <v>39</v>
@@ -3878,7 +3875,7 @@
         <v>39</v>
       </c>
       <c r="E4" s="50" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="F4" s="46" t="s">
         <v>39</v>
@@ -3968,7 +3965,7 @@
         <v>21</v>
       </c>
       <c r="E7" s="90" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F7" s="22" t="s">
         <v>39</v>
@@ -4028,7 +4025,7 @@
         <v>39</v>
       </c>
       <c r="E9" s="93" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="F9" s="22" t="s">
         <v>39</v>
@@ -4058,13 +4055,13 @@
         <v>21</v>
       </c>
       <c r="E10" s="94" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="F10" s="94" t="s">
         <v>39</v>
       </c>
       <c r="G10" s="95" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H10" s="23"/>
       <c r="I10" s="17" t="s">
@@ -4095,8 +4092,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10E7F0DF-14BE-4BB8-BB6C-8815808B0B66}">
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4195,7 +4192,7 @@
         <v>39</v>
       </c>
       <c r="E4" s="50" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="F4" s="46" t="s">
         <v>39</v>
@@ -4225,7 +4222,7 @@
         <v>39</v>
       </c>
       <c r="E5" s="90" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F5" s="20" t="s">
         <v>39</v>
@@ -4291,7 +4288,7 @@
         <v>39</v>
       </c>
       <c r="G7" s="27" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="H7" s="19"/>
       <c r="I7" s="22" t="s">
@@ -4318,10 +4315,10 @@
         <v>127</v>
       </c>
       <c r="F8" s="26" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="G8" s="27" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="H8" s="23"/>
       <c r="I8" s="18" t="s">
@@ -4466,10 +4463,10 @@
         <v>166</v>
       </c>
       <c r="F13" s="26" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="G13" s="21" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="H13" s="25"/>
       <c r="I13" s="18" t="s">
@@ -4496,10 +4493,10 @@
         <v>166</v>
       </c>
       <c r="F14" s="26" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="G14" s="21" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="H14" s="25"/>
       <c r="I14" s="18">
@@ -4582,10 +4579,10 @@
       </c>
       <c r="E17" s="26"/>
       <c r="F17" s="26" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="G17" s="27" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="18" t="s">
@@ -4609,7 +4606,7 @@
         <v>39</v>
       </c>
       <c r="E18" s="93" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="F18" s="26" t="s">
         <v>39</v>
@@ -4672,10 +4669,10 @@
         <v>39</v>
       </c>
       <c r="F20" s="26" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="G20" s="24" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="18" t="s">
@@ -4699,7 +4696,7 @@
         <v>21</v>
       </c>
       <c r="E21" s="26" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F21" s="26" t="s">
         <v>39</v>
@@ -4758,8 +4755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B91B1FF-D207-4871-B787-27544A9D3030}">
   <dimension ref="A1:P46"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42:XFD42"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5016,7 +5013,7 @@
         <v>39</v>
       </c>
       <c r="E9" s="86" t="s">
-        <v>254</v>
+        <v>318</v>
       </c>
       <c r="F9" s="80" t="s">
         <v>39</v>
@@ -5048,7 +5045,7 @@
         <v>39</v>
       </c>
       <c r="E10" s="83" t="s">
-        <v>259</v>
+        <v>320</v>
       </c>
       <c r="F10" s="60" t="s">
         <v>39</v>
@@ -5080,7 +5077,7 @@
         <v>39</v>
       </c>
       <c r="E11" s="83" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F11" s="60" t="s">
         <v>39</v>
@@ -5112,7 +5109,7 @@
         <v>39</v>
       </c>
       <c r="E12" s="84" t="s">
-        <v>258</v>
+        <v>319</v>
       </c>
       <c r="F12" s="60" t="s">
         <v>39</v>
@@ -5179,10 +5176,10 @@
         <v>39</v>
       </c>
       <c r="F14" s="36" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="G14" s="21" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="H14" s="40" t="s">
         <v>39</v>
@@ -5467,10 +5464,10 @@
         <v>39</v>
       </c>
       <c r="F23" s="36" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="G23" s="21" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="H23" s="40" t="s">
         <v>39</v>
@@ -5531,10 +5528,10 @@
         <v>39</v>
       </c>
       <c r="F25" s="36" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="G25" s="21" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="H25" s="40" t="s">
         <v>39</v>
@@ -5563,10 +5560,10 @@
         <v>39</v>
       </c>
       <c r="F26" s="36" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="G26" s="21" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="H26" s="40" t="s">
         <v>39</v>
@@ -5598,7 +5595,7 @@
         <v>39</v>
       </c>
       <c r="G27" s="21" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H27" s="40" t="s">
         <v>39</v>
@@ -5755,10 +5752,10 @@
         <v>39</v>
       </c>
       <c r="F32" s="36" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="G32" s="21" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="H32" s="40" t="s">
         <v>39</v>
@@ -6058,7 +6055,7 @@
     </row>
     <row r="42" spans="1:16" s="54" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="B42" s="6" t="s">
         <v>35</v>
@@ -6076,10 +6073,10 @@
         <v>39</v>
       </c>
       <c r="I42" s="72" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="J42" s="68" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="K42" s="5"/>
       <c r="L42" s="5"/>
@@ -6201,10 +6198,10 @@
         <v>39</v>
       </c>
       <c r="F46" s="36" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="G46" s="21" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="H46" s="40" t="s">
         <v>39</v>
@@ -6284,16 +6281,16 @@
   <sheetData>
     <row r="1" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C1" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="D1" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="E1" s="92" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="G1" t="str">
         <f>""""&amp;B1&amp;""""&amp;" : "&amp;""""&amp;E1&amp;""""&amp;","</f>
@@ -6302,16 +6299,16 @@
     </row>
     <row r="2" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C2" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="D2" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="E2" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="G2" t="str">
         <f t="shared" ref="G2:G11" si="0">""""&amp;B2&amp;""""&amp;" : "&amp;""""&amp;E2&amp;""""&amp;","</f>
@@ -6320,13 +6317,13 @@
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C3" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="D3" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="E3" s="92" t="s">
         <v>110</v>
@@ -6338,16 +6335,16 @@
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C4" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="D4" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="E4" s="92" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="G4" t="str">
         <f t="shared" si="0"/>
@@ -6356,13 +6353,13 @@
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C5" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="D5" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="E5" s="92" t="s">
         <v>110</v>
@@ -6374,16 +6371,16 @@
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C6" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="D6" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="E6" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="G6" t="str">
         <f t="shared" si="0"/>
@@ -6392,13 +6389,13 @@
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="D7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="E7" s="92" t="s">
         <v>110</v>
@@ -6410,16 +6407,16 @@
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="C8" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="D8" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="E8" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="G8" t="str">
         <f t="shared" si="0"/>
@@ -6428,13 +6425,13 @@
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="C9" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="D9" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="E9" s="92" t="s">
         <v>110</v>
@@ -6446,16 +6443,16 @@
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
+        <v>304</v>
+      </c>
+      <c r="C10" t="s">
+        <v>286</v>
+      </c>
+      <c r="D10" t="s">
+        <v>305</v>
+      </c>
+      <c r="E10" s="92" t="s">
         <v>308</v>
-      </c>
-      <c r="C10" t="s">
-        <v>290</v>
-      </c>
-      <c r="D10" t="s">
-        <v>309</v>
-      </c>
-      <c r="E10" s="92" t="s">
-        <v>312</v>
       </c>
       <c r="G10" t="str">
         <f t="shared" si="0"/>
@@ -6464,13 +6461,13 @@
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="C11" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="D11" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="E11" s="92" t="s">
         <v>119</v>

--- a/Nevada/WaterAllocation/NV_POD_Allocation Schema Mapping to WaDE_QA.xlsx
+++ b/Nevada/WaterAllocation/NV_POD_Allocation Schema Mapping to WaDE_QA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\Nevada\WaterAllocation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0DCC16A-18B5-4B0B-BAA4-6000CB359993}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{650EB629-CA78-4F52-BF10-E76DDC9647F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="1692" windowWidth="23256" windowHeight="12456" tabRatio="714" activeTab="5" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" tabRatio="714" activeTab="6" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping Notes" sheetId="10" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1078" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1083" uniqueCount="324">
   <si>
     <t>AllocationAmount</t>
   </si>
@@ -496,9 +496,6 @@
     <t>Water Administration for the State of Colorado</t>
   </si>
   <si>
-    <t>PrimaryUseCategory</t>
-  </si>
-  <si>
     <t>BeneficialUseCategory</t>
   </si>
   <si>
@@ -1007,6 +1004,15 @@
   </si>
   <si>
     <t>Create Custom WaDE Site ID, use index</t>
+  </si>
+  <si>
+    <t>AllocationUUID</t>
+  </si>
+  <si>
+    <t>NVwr_WR + counter</t>
+  </si>
+  <si>
+    <t>PrimaryBeneficialUseCategory</t>
   </si>
 </sst>
 </file>
@@ -1819,7 +1825,7 @@
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2104,6 +2110,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -2475,66 +2484,66 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="77" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="77" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="77" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B7" s="66" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B8" s="66" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="77" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B13" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B14" s="91" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B15" s="91" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
   </sheetData>
@@ -2547,7 +2556,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2589,10 +2598,10 @@
         <v>144</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>160</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>161</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>5</v>
@@ -2633,7 +2642,7 @@
         <v>11</v>
       </c>
       <c r="J3" s="68" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2650,7 +2659,7 @@
         <v>39</v>
       </c>
       <c r="E4" s="61" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F4" s="46" t="s">
         <v>39</v>
@@ -2665,7 +2674,7 @@
         <v>141</v>
       </c>
       <c r="J4" s="68" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="30.6" x14ac:dyDescent="0.3">
@@ -2682,7 +2691,7 @@
         <v>21</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F5" s="20" t="s">
         <v>39</v>
@@ -2697,7 +2706,7 @@
         <v>110</v>
       </c>
       <c r="J5" s="68" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -2714,7 +2723,7 @@
         <v>39</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F6" s="20" t="s">
         <v>39</v>
@@ -2729,7 +2738,7 @@
         <v>0.5</v>
       </c>
       <c r="J6" s="68" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -2746,7 +2755,7 @@
         <v>39</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F7" s="20" t="s">
         <v>39</v>
@@ -2761,7 +2770,7 @@
         <v>39</v>
       </c>
       <c r="J7" s="68" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="30.6" x14ac:dyDescent="0.3">
@@ -2778,7 +2787,7 @@
         <v>21</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F8" s="20" t="s">
         <v>39</v>
@@ -2790,10 +2799,10 @@
         <v>39</v>
       </c>
       <c r="I8" s="20" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="J8" s="68" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -2810,7 +2819,7 @@
         <v>39</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F9" s="20" t="s">
         <v>39</v>
@@ -2823,7 +2832,7 @@
       </c>
       <c r="I9" s="18"/>
       <c r="J9" s="68" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -2840,7 +2849,7 @@
         <v>39</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F10" s="20" t="s">
         <v>39</v>
@@ -2855,7 +2864,7 @@
         <v>145</v>
       </c>
       <c r="J10" s="68" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="36" x14ac:dyDescent="0.25">
@@ -2872,7 +2881,7 @@
         <v>39</v>
       </c>
       <c r="E11" s="78" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F11" s="20" t="s">
         <v>39</v>
@@ -2887,7 +2896,7 @@
         <v>109</v>
       </c>
       <c r="J11" s="68" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -2904,7 +2913,7 @@
         <v>21</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F12" s="20" t="s">
         <v>39</v>
@@ -2919,7 +2928,7 @@
         <v>111</v>
       </c>
       <c r="J12" s="68" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -2978,10 +2987,10 @@
         <v>144</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>160</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>161</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>5</v>
@@ -3022,7 +3031,7 @@
         <v>16</v>
       </c>
       <c r="J3" s="68" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3039,7 +3048,7 @@
         <v>39</v>
       </c>
       <c r="E4" s="46" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F4" s="46" t="s">
         <v>39</v>
@@ -3054,7 +3063,7 @@
         <v>142</v>
       </c>
       <c r="J4" s="68" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -3086,7 +3095,7 @@
         <v>1</v>
       </c>
       <c r="J5" s="68" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -3118,7 +3127,7 @@
         <v>113</v>
       </c>
       <c r="J6" s="68" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -3150,7 +3159,7 @@
         <v>112</v>
       </c>
       <c r="J7" s="68" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -3182,7 +3191,7 @@
         <v>115</v>
       </c>
       <c r="J8" s="68" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -3199,7 +3208,7 @@
         <v>21</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F9" s="20" t="s">
         <v>39</v>
@@ -3214,7 +3223,7 @@
         <v>116</v>
       </c>
       <c r="J9" s="68" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -3246,7 +3255,7 @@
         <v>10</v>
       </c>
       <c r="J10" s="68" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -3278,7 +3287,7 @@
         <v>114</v>
       </c>
       <c r="J11" s="68" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -3310,7 +3319,7 @@
         <v>146</v>
       </c>
       <c r="J12" s="68" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="51" x14ac:dyDescent="0.3">
@@ -3342,7 +3351,7 @@
         <v>117</v>
       </c>
       <c r="J13" s="68" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
   </sheetData>
@@ -3401,10 +3410,10 @@
         <v>144</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>160</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>161</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>5</v>
@@ -3445,7 +3454,7 @@
         <v>1</v>
       </c>
       <c r="J3" s="68" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.35">
@@ -3462,7 +3471,7 @@
         <v>39</v>
       </c>
       <c r="E4" s="44" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F4" s="46" t="s">
         <v>39</v>
@@ -3477,7 +3486,7 @@
         <v>128</v>
       </c>
       <c r="J4" s="68" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -3494,7 +3503,7 @@
         <v>39</v>
       </c>
       <c r="E5" s="87" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F5" s="20" t="s">
         <v>39</v>
@@ -3509,7 +3518,7 @@
         <v>132</v>
       </c>
       <c r="J5" s="68" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -3526,7 +3535,7 @@
         <v>39</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F6" s="20" t="s">
         <v>39</v>
@@ -3541,7 +3550,7 @@
         <v>131</v>
       </c>
       <c r="J6" s="68" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="48" x14ac:dyDescent="0.3">
@@ -3558,7 +3567,7 @@
         <v>39</v>
       </c>
       <c r="E7" s="89" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F7" s="20" t="s">
         <v>39</v>
@@ -3573,7 +3582,7 @@
         <v>129</v>
       </c>
       <c r="J7" s="68" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="24" x14ac:dyDescent="0.3">
@@ -3590,7 +3599,7 @@
         <v>39</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F8" s="20" t="s">
         <v>39</v>
@@ -3605,7 +3614,7 @@
         <v>149</v>
       </c>
       <c r="J8" s="68" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -3622,7 +3631,7 @@
         <v>39</v>
       </c>
       <c r="E9" s="82" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F9" s="20" t="s">
         <v>39</v>
@@ -3637,7 +3646,7 @@
         <v>130</v>
       </c>
       <c r="J9" s="68" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="24" x14ac:dyDescent="0.3">
@@ -3654,7 +3663,7 @@
         <v>39</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F10" s="20" t="s">
         <v>39</v>
@@ -3669,7 +3678,7 @@
         <v>150</v>
       </c>
       <c r="J10" s="68" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="24" x14ac:dyDescent="0.3">
@@ -3686,7 +3695,7 @@
         <v>39</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F11" s="20" t="s">
         <v>39</v>
@@ -3701,7 +3710,7 @@
         <v>129</v>
       </c>
       <c r="J11" s="68" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -3718,7 +3727,7 @@
         <v>39</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F12" s="20" t="s">
         <v>39</v>
@@ -3733,7 +3742,7 @@
         <v>133</v>
       </c>
       <c r="J12" s="68" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
@@ -3816,10 +3825,10 @@
         <v>144</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>160</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>161</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>5</v>
@@ -3858,7 +3867,7 @@
         <v>34658</v>
       </c>
       <c r="J3" s="68" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
@@ -3875,7 +3884,7 @@
         <v>39</v>
       </c>
       <c r="E4" s="50" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F4" s="46" t="s">
         <v>39</v>
@@ -3888,7 +3897,7 @@
         <v>118</v>
       </c>
       <c r="J4" s="68" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="30.6" x14ac:dyDescent="0.3">
@@ -3905,7 +3914,7 @@
         <v>39</v>
       </c>
       <c r="E5" s="67" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F5" s="22" t="s">
         <v>39</v>
@@ -3918,7 +3927,7 @@
         <v>39</v>
       </c>
       <c r="J5" s="68" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="30.6" x14ac:dyDescent="0.3">
@@ -3935,7 +3944,7 @@
         <v>21</v>
       </c>
       <c r="E6" s="67" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F6" s="22" t="s">
         <v>39</v>
@@ -3948,7 +3957,7 @@
         <v>39</v>
       </c>
       <c r="J6" s="68" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="30.6" x14ac:dyDescent="0.3">
@@ -3965,7 +3974,7 @@
         <v>21</v>
       </c>
       <c r="E7" s="90" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F7" s="22" t="s">
         <v>39</v>
@@ -3978,7 +3987,7 @@
         <v>120</v>
       </c>
       <c r="J7" s="68" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -3995,7 +4004,7 @@
         <v>39</v>
       </c>
       <c r="E8" s="67" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F8" s="22" t="s">
         <v>39</v>
@@ -4005,10 +4014,10 @@
       </c>
       <c r="H8" s="23"/>
       <c r="I8" s="17" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J8" s="68" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="24" x14ac:dyDescent="0.3">
@@ -4025,7 +4034,7 @@
         <v>39</v>
       </c>
       <c r="E9" s="93" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F9" s="22" t="s">
         <v>39</v>
@@ -4038,7 +4047,7 @@
         <v>17839</v>
       </c>
       <c r="J9" s="68" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="30.6" x14ac:dyDescent="0.3">
@@ -4055,20 +4064,20 @@
         <v>21</v>
       </c>
       <c r="E10" s="94" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F10" s="94" t="s">
         <v>39</v>
       </c>
       <c r="G10" s="95" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H10" s="23"/>
       <c r="I10" s="17" t="s">
         <v>110</v>
       </c>
       <c r="J10" s="68" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -4092,7 +4101,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10E7F0DF-14BE-4BB8-BB6C-8815808B0B66}">
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
@@ -4135,10 +4144,10 @@
         <v>144</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>160</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>161</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>5</v>
@@ -4177,7 +4186,7 @@
         <v>39035</v>
       </c>
       <c r="J3" s="68" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4192,7 +4201,7 @@
         <v>39</v>
       </c>
       <c r="E4" s="50" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F4" s="46" t="s">
         <v>39</v>
@@ -4205,7 +4214,7 @@
         <v>121</v>
       </c>
       <c r="J4" s="68" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -4222,7 +4231,7 @@
         <v>39</v>
       </c>
       <c r="E5" s="90" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F5" s="20" t="s">
         <v>39</v>
@@ -4235,7 +4244,7 @@
         <v>119</v>
       </c>
       <c r="J5" s="68" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -4265,7 +4274,7 @@
         <v>126</v>
       </c>
       <c r="J6" s="68" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -4288,14 +4297,14 @@
         <v>39</v>
       </c>
       <c r="G7" s="27" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H7" s="19"/>
       <c r="I7" s="22" t="s">
         <v>39</v>
       </c>
       <c r="J7" s="69" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -4315,17 +4324,17 @@
         <v>127</v>
       </c>
       <c r="F8" s="26" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G8" s="27" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H8" s="23"/>
       <c r="I8" s="18" t="s">
         <v>127</v>
       </c>
       <c r="J8" s="68" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="30.6" x14ac:dyDescent="0.3">
@@ -4342,7 +4351,7 @@
         <v>39</v>
       </c>
       <c r="E9" s="26" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F9" s="26" t="s">
         <v>39</v>
@@ -4353,7 +4362,7 @@
       <c r="H9" s="19"/>
       <c r="I9" s="18"/>
       <c r="J9" s="68" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="51" x14ac:dyDescent="0.3">
@@ -4370,7 +4379,7 @@
         <v>21</v>
       </c>
       <c r="E10" s="26" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F10" s="26" t="s">
         <v>39</v>
@@ -4383,7 +4392,7 @@
         <v>39</v>
       </c>
       <c r="J10" s="68" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -4400,7 +4409,7 @@
         <v>39</v>
       </c>
       <c r="E11" s="36" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F11" s="36" t="s">
         <v>39</v>
@@ -4413,7 +4422,7 @@
         <v>39</v>
       </c>
       <c r="J11" s="69" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -4430,7 +4439,7 @@
         <v>39</v>
       </c>
       <c r="E12" s="26" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F12" s="26" t="s">
         <v>39</v>
@@ -4443,7 +4452,7 @@
         <v>39</v>
       </c>
       <c r="J12" s="69" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -4460,20 +4469,20 @@
         <v>39</v>
       </c>
       <c r="E13" s="26" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F13" s="26" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G13" s="21" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H13" s="25"/>
       <c r="I13" s="18" t="s">
         <v>124</v>
       </c>
       <c r="J13" s="68" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -4490,20 +4499,20 @@
         <v>39</v>
       </c>
       <c r="E14" s="26" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F14" s="26" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G14" s="21" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H14" s="25"/>
       <c r="I14" s="18">
         <v>-1067.700435</v>
       </c>
       <c r="J14" s="68" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -4520,7 +4529,7 @@
         <v>39</v>
       </c>
       <c r="E15" s="26" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F15" s="26" t="s">
         <v>39</v>
@@ -4533,7 +4542,7 @@
         <v>39</v>
       </c>
       <c r="J15" s="68" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -4550,7 +4559,7 @@
         <v>21</v>
       </c>
       <c r="E16" s="26" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F16" s="26" t="s">
         <v>39</v>
@@ -4563,7 +4572,7 @@
         <v>39</v>
       </c>
       <c r="J16" s="68" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
@@ -4579,17 +4588,17 @@
       </c>
       <c r="E17" s="26"/>
       <c r="F17" s="26" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G17" s="27" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="18" t="s">
         <v>122</v>
       </c>
       <c r="J17" s="68" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
@@ -4606,7 +4615,7 @@
         <v>39</v>
       </c>
       <c r="E18" s="93" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F18" s="26" t="s">
         <v>39</v>
@@ -4619,7 +4628,7 @@
         <v>3703994</v>
       </c>
       <c r="J18" s="68" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="24" x14ac:dyDescent="0.3">
@@ -4636,7 +4645,7 @@
         <v>39</v>
       </c>
       <c r="E19" s="26" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F19" s="26" t="s">
         <v>39</v>
@@ -4649,7 +4658,7 @@
         <v>125</v>
       </c>
       <c r="J19" s="69" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -4669,17 +4678,17 @@
         <v>39</v>
       </c>
       <c r="F20" s="26" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G20" s="24" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="18" t="s">
         <v>123</v>
       </c>
       <c r="J20" s="68" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -4696,7 +4705,7 @@
         <v>21</v>
       </c>
       <c r="E21" s="26" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F21" s="26" t="s">
         <v>39</v>
@@ -4709,7 +4718,7 @@
         <v>143</v>
       </c>
       <c r="J21" s="68" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
@@ -4726,7 +4735,7 @@
         <v>39</v>
       </c>
       <c r="E22" s="26" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F22" s="26" t="s">
         <v>39</v>
@@ -4739,7 +4748,7 @@
         <v>39</v>
       </c>
       <c r="J22" s="69" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -4753,10 +4762,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B91B1FF-D207-4871-B787-27544A9D3030}">
-  <dimension ref="A1:P46"/>
+  <dimension ref="A1:P47"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4798,10 +4807,10 @@
         <v>144</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>160</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>161</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>5</v>
@@ -4836,7 +4845,7 @@
         <v>50004</v>
       </c>
       <c r="J3" s="68" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="4" spans="1:10" s="54" customFormat="1" x14ac:dyDescent="0.3">
@@ -4868,7 +4877,7 @@
         <v>43</v>
       </c>
       <c r="J4" s="68" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5" spans="1:10" s="54" customFormat="1" x14ac:dyDescent="0.3">
@@ -4900,7 +4909,7 @@
         <v>1</v>
       </c>
       <c r="J5" s="68" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:10" s="54" customFormat="1" x14ac:dyDescent="0.3">
@@ -4932,7 +4941,7 @@
         <v>39035</v>
       </c>
       <c r="J6" s="68" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="7" spans="1:10" s="54" customFormat="1" x14ac:dyDescent="0.3">
@@ -4964,10 +4973,10 @@
         <v>63</v>
       </c>
       <c r="J7" s="68" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" s="54" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="54" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="54" t="s">
         <v>40</v>
       </c>
@@ -4996,76 +5005,66 @@
         <v>371091</v>
       </c>
       <c r="J8" s="68" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" s="54" customFormat="1" x14ac:dyDescent="0.3">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="54" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="54" t="s">
+        <v>321</v>
+      </c>
+      <c r="B9" s="55" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="56" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="59" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="97" t="s">
+        <v>322</v>
+      </c>
+      <c r="F9" s="93"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="71"/>
+      <c r="J9" s="68"/>
+    </row>
+    <row r="10" spans="1:10" s="54" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="55" t="s">
+      <c r="B10" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="C9" s="56" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" s="59" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" s="86" t="s">
-        <v>318</v>
-      </c>
-      <c r="F9" s="80" t="s">
-        <v>39</v>
-      </c>
-      <c r="G9" s="81" t="s">
-        <v>39</v>
-      </c>
-      <c r="H9" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="I9" s="71" t="s">
-        <v>39</v>
-      </c>
-      <c r="J9" s="68" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
+      <c r="C10" s="56" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="59" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="86" t="s">
+        <v>317</v>
+      </c>
+      <c r="F10" s="80" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" s="81" t="s">
+        <v>39</v>
+      </c>
+      <c r="H10" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="I10" s="71" t="s">
+        <v>39</v>
+      </c>
+      <c r="J10" s="68" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
         <v>73</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" s="83" t="s">
-        <v>320</v>
-      </c>
-      <c r="F10" s="60" t="s">
-        <v>39</v>
-      </c>
-      <c r="G10" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="H10" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="I10" s="72" t="s">
-        <v>39</v>
-      </c>
-      <c r="J10" s="68" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="24" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
-        <v>50</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>68</v>
@@ -5077,7 +5076,7 @@
         <v>39</v>
       </c>
       <c r="E11" s="83" t="s">
-        <v>266</v>
+        <v>319</v>
       </c>
       <c r="F11" s="60" t="s">
         <v>39</v>
@@ -5092,12 +5091,12 @@
         <v>39</v>
       </c>
       <c r="J11" s="68" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="24" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>68</v>
@@ -5108,8 +5107,8 @@
       <c r="D12" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="E12" s="84" t="s">
-        <v>319</v>
+      <c r="E12" s="83" t="s">
+        <v>265</v>
       </c>
       <c r="F12" s="60" t="s">
         <v>39</v>
@@ -5124,120 +5123,120 @@
         <v>39</v>
       </c>
       <c r="J12" s="68" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="7" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="84" t="s">
+        <v>318</v>
+      </c>
+      <c r="F13" s="60" t="s">
+        <v>39</v>
+      </c>
+      <c r="G13" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="H13" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="I13" s="72" t="s">
+        <v>39</v>
+      </c>
+      <c r="J13" s="68" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="41" t="s">
+      <c r="B14" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="C13" s="42" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" s="42" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" s="85" t="s">
-        <v>249</v>
-      </c>
-      <c r="F13" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="G13" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="H13" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="I13" s="72" t="s">
-        <v>39</v>
-      </c>
-      <c r="J13" s="68" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
+      <c r="C14" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="85" t="s">
+        <v>248</v>
+      </c>
+      <c r="F14" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="G14" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="H14" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="I14" s="72" t="s">
+        <v>39</v>
+      </c>
+      <c r="J14" s="68" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B15" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C15" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E14" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="F14" s="36" t="s">
-        <v>257</v>
-      </c>
-      <c r="G14" s="21" t="s">
-        <v>270</v>
-      </c>
-      <c r="H14" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="I14" s="18">
+      <c r="D15" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15" s="36" t="s">
+        <v>256</v>
+      </c>
+      <c r="G15" s="21" t="s">
+        <v>269</v>
+      </c>
+      <c r="H15" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="I15" s="18">
         <v>1</v>
-      </c>
-      <c r="J14" s="68" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" s="54" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="54" t="s">
-        <v>153</v>
-      </c>
-      <c r="B15" s="55" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="56" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="58" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" s="26" t="s">
-        <v>163</v>
-      </c>
-      <c r="F15" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="G15" s="51" t="s">
-        <v>39</v>
-      </c>
-      <c r="H15" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="I15" s="70">
-        <v>5363</v>
       </c>
       <c r="J15" s="68" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="16" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C16" s="6" t="s">
+    <row r="16" spans="1:10" s="54" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="54" t="s">
+        <v>152</v>
+      </c>
+      <c r="B16" s="55" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="10" t="s">
-        <v>39</v>
+      <c r="D16" s="58" t="s">
+        <v>21</v>
       </c>
       <c r="E16" s="26" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F16" s="36" t="s">
         <v>39</v>
@@ -5248,16 +5247,16 @@
       <c r="H16" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="I16" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="J16" s="69" t="s">
-        <v>165</v>
+      <c r="I16" s="70">
+        <v>5363</v>
+      </c>
+      <c r="J16" s="68" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="17" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>69</v>
@@ -5269,7 +5268,7 @@
         <v>39</v>
       </c>
       <c r="E17" s="26" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F17" s="36" t="s">
         <v>39</v>
@@ -5284,56 +5283,56 @@
         <v>135</v>
       </c>
       <c r="J17" s="69" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" s="39" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A18" s="54" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="F18" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="G18" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="H18" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="I18" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="J18" s="69" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" s="39" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A19" s="54" t="s">
         <v>86</v>
       </c>
-      <c r="B18" s="55" t="s">
+      <c r="B19" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="55" t="s">
+      <c r="C19" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="58" t="s">
+      <c r="D19" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="E18" s="26" t="s">
-        <v>163</v>
-      </c>
-      <c r="F18" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="G18" s="51" t="s">
-        <v>39</v>
-      </c>
-      <c r="H18" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="I18" s="70" t="s">
-        <v>158</v>
-      </c>
-      <c r="J18" s="68" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>39</v>
-      </c>
       <c r="E19" s="26" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F19" s="36" t="s">
         <v>39</v>
@@ -5344,19 +5343,19 @@
       <c r="H19" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="I19" s="18" t="s">
-        <v>140</v>
-      </c>
-      <c r="J19" s="69" t="s">
-        <v>165</v>
+      <c r="I19" s="70" t="s">
+        <v>157</v>
+      </c>
+      <c r="J19" s="68" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>19</v>
@@ -5365,7 +5364,7 @@
         <v>39</v>
       </c>
       <c r="E20" s="26" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F20" s="36" t="s">
         <v>39</v>
@@ -5377,18 +5376,18 @@
         <v>39</v>
       </c>
       <c r="I20" s="18" t="s">
-        <v>139</v>
-      </c>
-      <c r="J20" s="68" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.3">
+        <v>140</v>
+      </c>
+      <c r="J20" s="69" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>19</v>
@@ -5397,7 +5396,7 @@
         <v>39</v>
       </c>
       <c r="E21" s="26" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F21" s="36" t="s">
         <v>39</v>
@@ -5408,28 +5407,28 @@
       <c r="H21" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="I21" s="72" t="s">
-        <v>39</v>
-      </c>
-      <c r="J21" s="69" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I21" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="J21" s="68" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
-        <v>155</v>
+        <v>89</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="E22" s="26" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F22" s="36" t="s">
         <v>39</v>
@@ -5440,19 +5439,19 @@
       <c r="H22" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="I22" s="18">
-        <v>5200</v>
-      </c>
-      <c r="J22" s="68" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="I22" s="72" t="s">
+        <v>39</v>
+      </c>
+      <c r="J22" s="69" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
-        <v>87</v>
+        <v>154</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>19</v>
@@ -5460,220 +5459,220 @@
       <c r="D23" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E23" s="65" t="s">
-        <v>39</v>
+      <c r="E23" s="26" t="s">
+        <v>162</v>
       </c>
       <c r="F23" s="36" t="s">
-        <v>257</v>
-      </c>
-      <c r="G23" s="21" t="s">
-        <v>274</v>
+        <v>39</v>
+      </c>
+      <c r="G23" s="51" t="s">
+        <v>39</v>
       </c>
       <c r="H23" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="I23" s="18" t="s">
-        <v>138</v>
+      <c r="I23" s="18">
+        <v>5200</v>
       </c>
       <c r="J23" s="68" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.3">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E24" s="26" t="s">
-        <v>163</v>
+        <v>21</v>
+      </c>
+      <c r="E24" s="65" t="s">
+        <v>39</v>
       </c>
       <c r="F24" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="G24" s="51" t="s">
-        <v>39</v>
+        <v>256</v>
+      </c>
+      <c r="G24" s="21" t="s">
+        <v>273</v>
       </c>
       <c r="H24" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="I24" s="18">
+      <c r="I24" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="J24" s="68" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E25" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="F25" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="G25" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="H25" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="I25" s="18">
         <v>0</v>
       </c>
-      <c r="J24" s="68" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E25" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="F25" s="36" t="s">
-        <v>257</v>
-      </c>
-      <c r="G25" s="21" t="s">
-        <v>275</v>
-      </c>
-      <c r="H25" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="I25" s="18" t="s">
-        <v>136</v>
-      </c>
       <c r="J25" s="68" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="9" t="s">
         <v>19</v>
       </c>
       <c r="D26" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E26" s="62" t="s">
+      <c r="E26" s="26" t="s">
         <v>39</v>
       </c>
       <c r="F26" s="36" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G26" s="21" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="H26" s="40" t="s">
         <v>39</v>
       </c>
       <c r="I26" s="18" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J26" s="68" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
-        <v>154</v>
+        <v>85</v>
       </c>
       <c r="B27" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E27" s="62" t="s">
+        <v>39</v>
+      </c>
+      <c r="F27" s="36" t="s">
+        <v>256</v>
+      </c>
+      <c r="G27" s="21" t="s">
+        <v>283</v>
+      </c>
+      <c r="H27" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="I27" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="J27" s="68" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="B28" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C27" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E27" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="F27" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="G27" s="21" t="s">
-        <v>271</v>
-      </c>
-      <c r="H27" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="I27" s="18" t="s">
-        <v>159</v>
-      </c>
-      <c r="J27" s="68" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" s="39" customFormat="1" ht="30.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>19</v>
+      <c r="C28" s="19" t="s">
+        <v>39</v>
       </c>
       <c r="D28" s="10" t="s">
         <v>21</v>
       </c>
       <c r="E28" s="26" t="s">
-        <v>163</v>
+        <v>39</v>
       </c>
       <c r="F28" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="G28" s="51" t="s">
-        <v>39</v>
+      <c r="G28" s="21" t="s">
+        <v>270</v>
       </c>
       <c r="H28" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="I28" s="72" t="s">
-        <v>39</v>
+      <c r="I28" s="18" t="s">
+        <v>158</v>
       </c>
       <c r="J28" s="68" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" s="39" customFormat="1" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
-        <v>106</v>
+        <v>155</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>108</v>
+        <v>16</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E29" s="79">
-        <v>44196</v>
+        <v>21</v>
+      </c>
+      <c r="E29" s="26" t="s">
+        <v>162</v>
       </c>
       <c r="F29" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="G29" s="21" t="s">
+      <c r="G29" s="51" t="s">
         <v>39</v>
       </c>
       <c r="H29" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="I29" s="73">
-        <v>44196</v>
+      <c r="I29" s="72" t="s">
+        <v>39</v>
       </c>
       <c r="J29" s="68" t="s">
-        <v>209</v>
+        <v>241</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>108</v>
@@ -5685,7 +5684,7 @@
         <v>39</v>
       </c>
       <c r="E30" s="79">
-        <v>43831</v>
+        <v>44196</v>
       </c>
       <c r="F30" s="36" t="s">
         <v>39</v>
@@ -5697,123 +5696,123 @@
         <v>39</v>
       </c>
       <c r="I30" s="73">
-        <v>43831</v>
+        <v>44196</v>
       </c>
       <c r="J30" s="68" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>35</v>
+        <v>108</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E31" s="26" t="s">
-        <v>163</v>
+        <v>39</v>
+      </c>
+      <c r="E31" s="79">
+        <v>43831</v>
       </c>
       <c r="F31" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="G31" s="51" t="s">
+      <c r="G31" s="21" t="s">
         <v>39</v>
       </c>
       <c r="H31" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="I31" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="J31" s="69" t="s">
-        <v>165</v>
+      <c r="I31" s="73">
+        <v>43831</v>
+      </c>
+      <c r="J31" s="68" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
-        <v>152</v>
+        <v>88</v>
       </c>
       <c r="B32" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C32" s="19" t="s">
-        <v>39</v>
+      <c r="C32" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E32" s="65" t="s">
-        <v>39</v>
+        <v>21</v>
+      </c>
+      <c r="E32" s="26" t="s">
+        <v>162</v>
       </c>
       <c r="F32" s="36" t="s">
-        <v>257</v>
-      </c>
-      <c r="G32" s="21" t="s">
-        <v>272</v>
+        <v>39</v>
+      </c>
+      <c r="G32" s="51" t="s">
+        <v>39</v>
       </c>
       <c r="H32" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="I32" s="72" t="s">
-        <v>39</v>
-      </c>
-      <c r="J32" s="68" t="s">
-        <v>211</v>
+      <c r="I32" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="J32" s="69" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
-        <v>103</v>
+        <v>151</v>
       </c>
       <c r="B33" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C33" s="6" t="s">
-        <v>19</v>
+      <c r="C33" s="19" t="s">
+        <v>39</v>
       </c>
       <c r="D33" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E33" s="26" t="s">
-        <v>163</v>
+      <c r="E33" s="65" t="s">
+        <v>39</v>
       </c>
       <c r="F33" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="G33" s="51" t="s">
-        <v>39</v>
+        <v>256</v>
+      </c>
+      <c r="G33" s="21" t="s">
+        <v>271</v>
       </c>
       <c r="H33" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="I33" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="J33" s="69" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="I33" s="72" t="s">
+        <v>39</v>
+      </c>
+      <c r="J33" s="68" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="E34" s="26" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F34" s="36" t="s">
         <v>39</v>
@@ -5827,13 +5826,13 @@
       <c r="I34" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="J34" s="68" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" s="54" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="J34" s="69" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B35" s="6" t="s">
         <v>16</v>
@@ -5845,7 +5844,7 @@
         <v>21</v>
       </c>
       <c r="E35" s="26" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F35" s="36" t="s">
         <v>39</v>
@@ -5860,88 +5859,88 @@
         <v>135</v>
       </c>
       <c r="J35" s="68" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A36" s="54" t="s">
-        <v>157</v>
-      </c>
-      <c r="B36" s="55" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" s="54" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A36" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E36" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="F36" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="G36" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="H36" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="I36" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="J36" s="68" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A37" s="54" t="s">
+        <v>156</v>
+      </c>
+      <c r="B37" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="C36" s="59" t="s">
-        <v>39</v>
-      </c>
-      <c r="D36" s="58" t="s">
-        <v>39</v>
-      </c>
-      <c r="E36" s="64" t="s">
-        <v>39</v>
-      </c>
-      <c r="F36" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="G36" s="88">
+      <c r="C37" s="59" t="s">
+        <v>39</v>
+      </c>
+      <c r="D37" s="58" t="s">
+        <v>39</v>
+      </c>
+      <c r="E37" s="64" t="s">
+        <v>39</v>
+      </c>
+      <c r="F37" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="G37" s="88">
         <v>44032</v>
       </c>
-      <c r="H36" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="I36" s="74">
+      <c r="H37" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="I37" s="74">
         <v>43874</v>
       </c>
-      <c r="J36" s="68" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A37" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D37" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E37" s="26" t="s">
-        <v>163</v>
-      </c>
-      <c r="F37" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="G37" s="51" t="s">
-        <v>39</v>
-      </c>
-      <c r="H37" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="I37" s="75">
-        <v>33187</v>
-      </c>
-      <c r="J37" s="69" t="s">
-        <v>165</v>
+      <c r="J37" s="68" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C38" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C38" s="9" t="s">
         <v>19</v>
       </c>
       <c r="D38" s="10" t="s">
         <v>39</v>
       </c>
       <c r="E38" s="26" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F38" s="36" t="s">
         <v>39</v>
@@ -5952,16 +5951,16 @@
       <c r="H38" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="I38" s="72" t="s">
-        <v>39</v>
-      </c>
-      <c r="J38" s="68" t="s">
-        <v>213</v>
+      <c r="I38" s="75">
+        <v>33187</v>
+      </c>
+      <c r="J38" s="69" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B39" s="6" t="s">
         <v>70</v>
@@ -5973,7 +5972,7 @@
         <v>39</v>
       </c>
       <c r="E39" s="26" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F39" s="36" t="s">
         <v>39</v>
@@ -5981,29 +5980,31 @@
       <c r="G39" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="H39" s="39"/>
+      <c r="H39" s="40" t="s">
+        <v>39</v>
+      </c>
       <c r="I39" s="72" t="s">
         <v>39</v>
       </c>
       <c r="J39" s="68" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="C40" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="E40" s="26" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F40" s="36" t="s">
         <v>39</v>
@@ -6011,31 +6012,29 @@
       <c r="G40" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="H40" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="I40" s="18" t="s">
-        <v>135</v>
+      <c r="H40" s="39"/>
+      <c r="I40" s="72" t="s">
+        <v>39</v>
       </c>
       <c r="J40" s="68" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="C41" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="E41" s="26" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F41" s="36" t="s">
         <v>39</v>
@@ -6046,16 +6045,16 @@
       <c r="H41" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="I41" s="72" t="s">
-        <v>39</v>
-      </c>
-      <c r="J41" s="69" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" s="54" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="I41" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="J41" s="68" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
-        <v>314</v>
+        <v>98</v>
       </c>
       <c r="B42" s="6" t="s">
         <v>35</v>
@@ -6063,159 +6062,191 @@
       <c r="C42" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D42" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="96"/>
+      <c r="D42" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E42" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="F42" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="G42" s="51" t="s">
+        <v>39</v>
+      </c>
       <c r="H42" s="40" t="s">
         <v>39</v>
       </c>
       <c r="I42" s="72" t="s">
-        <v>315</v>
-      </c>
-      <c r="J42" s="68" t="s">
-        <v>316</v>
-      </c>
-      <c r="K42" s="5"/>
-      <c r="L42" s="5"/>
-      <c r="M42" s="5"/>
-      <c r="N42" s="5"/>
-      <c r="O42" s="5"/>
-      <c r="P42" s="5"/>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+      <c r="J42" s="69" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" s="54" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
-        <v>91</v>
+        <v>313</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C43" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D43" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E43" s="26" t="s">
-        <v>163</v>
-      </c>
-      <c r="F43" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="G43" s="51" t="s">
-        <v>39</v>
-      </c>
+      <c r="D43" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="96"/>
       <c r="H43" s="40" t="s">
         <v>39</v>
       </c>
       <c r="I43" s="72" t="s">
-        <v>39</v>
+        <v>314</v>
       </c>
       <c r="J43" s="68" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" s="54" customFormat="1" x14ac:dyDescent="0.3">
+        <v>315</v>
+      </c>
+      <c r="K43" s="5"/>
+      <c r="L43" s="5"/>
+      <c r="M43" s="5"/>
+      <c r="N43" s="5"/>
+      <c r="O43" s="5"/>
+      <c r="P43" s="5"/>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="C44" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D44" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E44" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="F44" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="G44" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="H44" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="I44" s="72" t="s">
+        <v>39</v>
+      </c>
+      <c r="J44" s="68" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" s="54" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D45" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E44" s="26" t="s">
-        <v>163</v>
-      </c>
-      <c r="F44" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="G44" s="51" t="s">
-        <v>39</v>
-      </c>
-      <c r="H44" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="I44" s="18" t="s">
+      <c r="E45" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="F45" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="G45" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="H45" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="I45" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="J44" s="69" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A45" s="54" t="s">
-        <v>151</v>
-      </c>
-      <c r="B45" s="55" t="s">
+      <c r="J45" s="69" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A46" s="54" t="s">
+        <v>323</v>
+      </c>
+      <c r="B46" s="55" t="s">
         <v>107</v>
       </c>
-      <c r="C45" s="56" t="s">
+      <c r="C46" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="D45" s="58" t="s">
+      <c r="D46" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="E45" s="26" t="s">
-        <v>163</v>
-      </c>
-      <c r="F45" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="G45" s="51" t="s">
-        <v>39</v>
-      </c>
-      <c r="H45" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="I45" s="70" t="s">
+      <c r="E46" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="F46" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="G46" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="H46" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="I46" s="70" t="s">
         <v>134</v>
       </c>
-      <c r="J45" s="68" t="s">
+      <c r="J46" s="68" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A47" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D47" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E47" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="F47" s="36" t="s">
+        <v>256</v>
+      </c>
+      <c r="G47" s="21" t="s">
+        <v>272</v>
+      </c>
+      <c r="H47" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="I47" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="J47" s="68" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A46" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="B46" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D46" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E46" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="F46" s="36" t="s">
-        <v>257</v>
-      </c>
-      <c r="G46" s="21" t="s">
-        <v>273</v>
-      </c>
-      <c r="H46" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="I46" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="J46" s="68" t="s">
-        <v>217</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A14:J46">
-    <sortCondition ref="A14:A46"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A15:J47">
+    <sortCondition ref="A15:A47"/>
   </sortState>
   <phoneticPr fontId="25" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6281,16 +6312,16 @@
   <sheetData>
     <row r="1" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C1" t="s">
         <v>285</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>286</v>
       </c>
-      <c r="D1" t="s">
-        <v>287</v>
-      </c>
       <c r="E1" s="92" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G1" t="str">
         <f>""""&amp;B1&amp;""""&amp;" : "&amp;""""&amp;E1&amp;""""&amp;","</f>
@@ -6299,16 +6330,16 @@
     </row>
     <row r="2" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C2" t="s">
+        <v>285</v>
+      </c>
+      <c r="D2" t="s">
         <v>288</v>
       </c>
-      <c r="C2" t="s">
-        <v>286</v>
-      </c>
-      <c r="D2" t="s">
-        <v>289</v>
-      </c>
       <c r="E2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G2" t="str">
         <f t="shared" ref="G2:G11" si="0">""""&amp;B2&amp;""""&amp;" : "&amp;""""&amp;E2&amp;""""&amp;","</f>
@@ -6317,13 +6348,13 @@
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
+        <v>289</v>
+      </c>
+      <c r="C3" t="s">
+        <v>285</v>
+      </c>
+      <c r="D3" t="s">
         <v>290</v>
-      </c>
-      <c r="C3" t="s">
-        <v>286</v>
-      </c>
-      <c r="D3" t="s">
-        <v>291</v>
       </c>
       <c r="E3" s="92" t="s">
         <v>110</v>
@@ -6335,16 +6366,16 @@
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
+        <v>291</v>
+      </c>
+      <c r="C4" t="s">
+        <v>285</v>
+      </c>
+      <c r="D4" t="s">
         <v>292</v>
       </c>
-      <c r="C4" t="s">
-        <v>286</v>
-      </c>
-      <c r="D4" t="s">
-        <v>293</v>
-      </c>
       <c r="E4" s="92" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G4" t="str">
         <f t="shared" si="0"/>
@@ -6353,13 +6384,13 @@
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
+        <v>293</v>
+      </c>
+      <c r="C5" t="s">
+        <v>285</v>
+      </c>
+      <c r="D5" t="s">
         <v>294</v>
-      </c>
-      <c r="C5" t="s">
-        <v>286</v>
-      </c>
-      <c r="D5" t="s">
-        <v>295</v>
       </c>
       <c r="E5" s="92" t="s">
         <v>110</v>
@@ -6371,16 +6402,16 @@
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
+        <v>295</v>
+      </c>
+      <c r="C6" t="s">
+        <v>285</v>
+      </c>
+      <c r="D6" t="s">
         <v>296</v>
       </c>
-      <c r="C6" t="s">
-        <v>286</v>
-      </c>
-      <c r="D6" t="s">
-        <v>297</v>
-      </c>
       <c r="E6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G6" t="str">
         <f t="shared" si="0"/>
@@ -6389,13 +6420,13 @@
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
+        <v>297</v>
+      </c>
+      <c r="C7" t="s">
+        <v>285</v>
+      </c>
+      <c r="D7" t="s">
         <v>298</v>
-      </c>
-      <c r="C7" t="s">
-        <v>286</v>
-      </c>
-      <c r="D7" t="s">
-        <v>299</v>
       </c>
       <c r="E7" s="92" t="s">
         <v>110</v>
@@ -6407,16 +6438,16 @@
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
+        <v>299</v>
+      </c>
+      <c r="C8" t="s">
+        <v>285</v>
+      </c>
+      <c r="D8" t="s">
         <v>300</v>
       </c>
-      <c r="C8" t="s">
-        <v>286</v>
-      </c>
-      <c r="D8" t="s">
-        <v>301</v>
-      </c>
       <c r="E8" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G8" t="str">
         <f t="shared" si="0"/>
@@ -6425,13 +6456,13 @@
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
+        <v>301</v>
+      </c>
+      <c r="C9" t="s">
+        <v>285</v>
+      </c>
+      <c r="D9" t="s">
         <v>302</v>
-      </c>
-      <c r="C9" t="s">
-        <v>286</v>
-      </c>
-      <c r="D9" t="s">
-        <v>303</v>
       </c>
       <c r="E9" s="92" t="s">
         <v>110</v>
@@ -6443,16 +6474,16 @@
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
+        <v>303</v>
+      </c>
+      <c r="C10" t="s">
+        <v>285</v>
+      </c>
+      <c r="D10" t="s">
         <v>304</v>
       </c>
-      <c r="C10" t="s">
-        <v>286</v>
-      </c>
-      <c r="D10" t="s">
-        <v>305</v>
-      </c>
       <c r="E10" s="92" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G10" t="str">
         <f t="shared" si="0"/>
@@ -6461,13 +6492,13 @@
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
+        <v>305</v>
+      </c>
+      <c r="C11" t="s">
+        <v>285</v>
+      </c>
+      <c r="D11" t="s">
         <v>306</v>
-      </c>
-      <c r="C11" t="s">
-        <v>286</v>
-      </c>
-      <c r="D11" t="s">
-        <v>307</v>
       </c>
       <c r="E11" s="92" t="s">
         <v>119</v>

--- a/Nevada/WaterAllocation/NV_POD_Allocation Schema Mapping to WaDE_QA.xlsx
+++ b/Nevada/WaterAllocation/NV_POD_Allocation Schema Mapping to WaDE_QA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\Nevada\WaterAllocation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{650EB629-CA78-4F52-BF10-E76DDC9647F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC31E3EF-F70E-4EF1-90A2-AB5861175CF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" tabRatio="714" activeTab="6" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
+    <workbookView xWindow="-23148" yWindow="1692" windowWidth="23256" windowHeight="12456" tabRatio="714" activeTab="6" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping Notes" sheetId="10" r:id="rId1"/>
@@ -784,9 +784,6 @@
     <t>Notes:</t>
   </si>
   <si>
-    <t>Estimated</t>
-  </si>
-  <si>
     <t>Use dummy row</t>
   </si>
   <si>
@@ -799,15 +796,6 @@
     <t>https://drive.google.com/drive/u/0/folders/1gcDyGOf4DG0Ej9k3mHjbB9UWefz271LW</t>
   </si>
   <si>
-    <t>Diversion Mapping</t>
-  </si>
-  <si>
-    <t>Nevada Diversion Mapping</t>
-  </si>
-  <si>
-    <t>https://ndwr.maps.arcgis.com/home/item.html?id=0d050f7b79724404b80bf29589f67363</t>
-  </si>
-  <si>
     <t xml:space="preserve">Data was downloaded and stored in google drive.  </t>
   </si>
   <si>
@@ -1013,6 +1001,18 @@
   </si>
   <si>
     <t>PrimaryBeneficialUseCategory</t>
+  </si>
+  <si>
+    <t>Legal Processes</t>
+  </si>
+  <si>
+    <t>Nevada Water Rights Method</t>
+  </si>
+  <si>
+    <t>The Nevada Division of Water Resources makes no warranties or guarantees, either expressed or implied as to the completeness, accuracy, or correctness of the data portrayed in this product nor accepts any liability, arising from any incorrect, incomplete or misleading information contained therein. All information, data and databases are provided “as is” with no warranty, expressed or implied, including but not limited to, fitness for a particular purpose. Users should also note that property boundaries included in any product do not represent an on- the-ground survey suitable for legal, engineering, or surveying purposes. They represent only the approximate relative locations. By accessing this website and/or data contained within the databases, you hereby release the Nevada Division of Water Resources, its employees, agents, contractors, and suppliers from any and all responsibility and liability associated with its use. In no event shall the Nevada Division of Water Resources or its officers or employees be liable for any damages arising in any way from the use of the website, or use of the information contained in the databases herein.</t>
+  </si>
+  <si>
+    <t>http://water.nv.gov/waterlaw.aspx</t>
   </si>
 </sst>
 </file>
@@ -1825,7 +1825,7 @@
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1881,19 +1881,13 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2001,12 +1995,6 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2023,7 +2011,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="42"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2056,9 +2044,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="16" fontId="21" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2083,7 +2068,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="21" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2092,27 +2077,18 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -2478,72 +2454,72 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" style="77" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.44140625" style="73" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="79" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="73" t="s">
         <v>243</v>
       </c>
       <c r="B1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="73" t="s">
+        <v>244</v>
+      </c>
+      <c r="B2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="73" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B7" s="62" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="77" t="s">
-        <v>244</v>
-      </c>
-      <c r="B2" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="77" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B7" s="66" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B8" s="62" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B8" s="66" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="73" t="s">
+        <v>246</v>
+      </c>
+      <c r="B13" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="77" t="s">
-        <v>246</v>
-      </c>
-      <c r="B13" t="s">
-        <v>255</v>
-      </c>
-    </row>
     <row r="14" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B14" s="91" t="s">
-        <v>278</v>
+      <c r="B14" s="86" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B15" s="91" t="s">
-        <v>279</v>
+      <c r="B15" s="86" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
   </sheetData>
@@ -2555,8 +2531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2606DDD-D901-4365-BB8D-3E6142C84460}">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView topLeftCell="A2" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2626,13 +2602,13 @@
       <c r="D3" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="F3" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="G3" s="35" t="s">
+      <c r="E3" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="33" t="s">
         <v>39</v>
       </c>
       <c r="H3" s="9" t="s">
@@ -2641,7 +2617,7 @@
       <c r="I3" s="17">
         <v>11</v>
       </c>
-      <c r="J3" s="68" t="s">
+      <c r="J3" s="64" t="s">
         <v>176</v>
       </c>
     </row>
@@ -2649,22 +2625,22 @@
       <c r="A4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="42" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" s="43" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" s="61" t="s">
-        <v>317</v>
-      </c>
-      <c r="F4" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="G4" s="47" t="s">
+      <c r="C4" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="57" t="s">
+        <v>313</v>
+      </c>
+      <c r="F4" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="45" t="s">
         <v>39</v>
       </c>
       <c r="H4" s="9" t="s">
@@ -2673,7 +2649,7 @@
       <c r="I4" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="J4" s="68" t="s">
+      <c r="J4" s="64" t="s">
         <v>195</v>
       </c>
     </row>
@@ -2693,10 +2669,10 @@
       <c r="E5" s="18" t="s">
         <v>161</v>
       </c>
-      <c r="F5" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="G5" s="21" t="s">
+      <c r="F5" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="20" t="s">
         <v>39</v>
       </c>
       <c r="H5" s="9" t="s">
@@ -2705,7 +2681,7 @@
       <c r="I5" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="J5" s="68" t="s">
+      <c r="J5" s="64" t="s">
         <v>221</v>
       </c>
     </row>
@@ -2722,22 +2698,22 @@
       <c r="D6" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="E6" s="19" t="s">
         <v>162</v>
       </c>
-      <c r="F6" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="G6" s="21" t="s">
+      <c r="F6" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="20" t="s">
         <v>39</v>
       </c>
       <c r="H6" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="I6" s="76">
+      <c r="I6" s="72">
         <v>0.5</v>
       </c>
-      <c r="J6" s="68" t="s">
+      <c r="J6" s="64" t="s">
         <v>178</v>
       </c>
     </row>
@@ -2754,22 +2730,22 @@
       <c r="D7" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="19" t="s">
         <v>162</v>
       </c>
-      <c r="F7" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="G7" s="21" t="s">
+      <c r="F7" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="20" t="s">
         <v>39</v>
       </c>
       <c r="H7" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="I7" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="J7" s="68" t="s">
+      <c r="I7" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="J7" s="64" t="s">
         <v>177</v>
       </c>
     </row>
@@ -2786,26 +2762,26 @@
       <c r="D8" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="20" t="s">
+      <c r="E8" s="19" t="s">
         <v>162</v>
       </c>
-      <c r="F8" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="G8" s="21" t="s">
+      <c r="F8" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="20" t="s">
         <v>39</v>
       </c>
       <c r="H8" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="I8" s="20" t="s">
+      <c r="I8" s="19" t="s">
         <v>217</v>
       </c>
-      <c r="J8" s="68" t="s">
+      <c r="J8" s="64" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>9</v>
       </c>
@@ -2818,20 +2794,20 @@
       <c r="D9" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="18" t="s">
-        <v>252</v>
-      </c>
-      <c r="F9" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="G9" s="21" t="s">
+      <c r="E9" s="17" t="s">
+        <v>322</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="20" t="s">
         <v>39</v>
       </c>
       <c r="H9" s="9" t="s">
         <v>39</v>
       </c>
       <c r="I9" s="18"/>
-      <c r="J9" s="68" t="s">
+      <c r="J9" s="64" t="s">
         <v>218</v>
       </c>
     </row>
@@ -2849,12 +2825,12 @@
         <v>39</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>253</v>
-      </c>
-      <c r="F10" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="G10" s="21" t="s">
+        <v>321</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" s="20" t="s">
         <v>39</v>
       </c>
       <c r="H10" s="9" t="s">
@@ -2863,11 +2839,11 @@
       <c r="I10" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="J10" s="68" t="s">
+      <c r="J10" s="64" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>10</v>
       </c>
@@ -2880,13 +2856,13 @@
       <c r="D11" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="78" t="s">
-        <v>254</v>
-      </c>
-      <c r="F11" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="G11" s="21" t="s">
+      <c r="E11" s="62" t="s">
+        <v>323</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" s="20" t="s">
         <v>39</v>
       </c>
       <c r="H11" s="9" t="s">
@@ -2895,7 +2871,7 @@
       <c r="I11" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="J11" s="68" t="s">
+      <c r="J11" s="64" t="s">
         <v>179</v>
       </c>
     </row>
@@ -2912,13 +2888,13 @@
       <c r="D12" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="20" t="s">
-        <v>247</v>
-      </c>
-      <c r="F12" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="G12" s="21" t="s">
+      <c r="E12" s="19" t="s">
+        <v>320</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="G12" s="20" t="s">
         <v>39</v>
       </c>
       <c r="H12" s="9" t="s">
@@ -2927,7 +2903,7 @@
       <c r="I12" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="J12" s="68" t="s">
+      <c r="J12" s="64" t="s">
         <v>222</v>
       </c>
     </row>
@@ -2935,8 +2911,11 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A18:A26">
     <sortCondition ref="A18:A26"/>
   </sortState>
+  <hyperlinks>
+    <hyperlink ref="E11" r:id="rId1" xr:uid="{F2CD279D-4177-4990-9EFA-33D08D528BCD}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3015,13 +2994,13 @@
       <c r="D3" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="F3" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="G3" s="34" t="s">
+      <c r="E3" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="32" t="s">
         <v>39</v>
       </c>
       <c r="H3" s="9" t="s">
@@ -3030,7 +3009,7 @@
       <c r="I3" s="17">
         <v>16</v>
       </c>
-      <c r="J3" s="68" t="s">
+      <c r="J3" s="64" t="s">
         <v>176</v>
       </c>
     </row>
@@ -3038,22 +3017,22 @@
       <c r="A4" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="42" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" s="43" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" s="46" t="s">
-        <v>318</v>
-      </c>
-      <c r="F4" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="G4" s="47" t="s">
+      <c r="C4" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="44" t="s">
+        <v>314</v>
+      </c>
+      <c r="F4" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="45" t="s">
         <v>39</v>
       </c>
       <c r="H4" s="9" t="s">
@@ -3062,7 +3041,7 @@
       <c r="I4" s="17" t="s">
         <v>142</v>
       </c>
-      <c r="J4" s="68" t="s">
+      <c r="J4" s="64" t="s">
         <v>180</v>
       </c>
     </row>
@@ -3082,10 +3061,10 @@
       <c r="E5" s="17">
         <v>1</v>
       </c>
-      <c r="F5" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="G5" s="21" t="s">
+      <c r="F5" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="20" t="s">
         <v>39</v>
       </c>
       <c r="H5" s="9" t="s">
@@ -3094,7 +3073,7 @@
       <c r="I5" s="17">
         <v>1</v>
       </c>
-      <c r="J5" s="68" t="s">
+      <c r="J5" s="64" t="s">
         <v>181</v>
       </c>
     </row>
@@ -3114,10 +3093,10 @@
       <c r="E6" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="F6" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="G6" s="21" t="s">
+      <c r="F6" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="20" t="s">
         <v>39</v>
       </c>
       <c r="H6" s="9" t="s">
@@ -3126,7 +3105,7 @@
       <c r="I6" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="J6" s="68" t="s">
+      <c r="J6" s="64" t="s">
         <v>182</v>
       </c>
     </row>
@@ -3146,10 +3125,10 @@
       <c r="E7" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="F7" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="G7" s="21" t="s">
+      <c r="F7" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="20" t="s">
         <v>39</v>
       </c>
       <c r="H7" s="9" t="s">
@@ -3158,7 +3137,7 @@
       <c r="I7" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="J7" s="68" t="s">
+      <c r="J7" s="64" t="s">
         <v>224</v>
       </c>
     </row>
@@ -3178,10 +3157,10 @@
       <c r="E8" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="F8" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="G8" s="21" t="s">
+      <c r="F8" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="20" t="s">
         <v>39</v>
       </c>
       <c r="H8" s="9" t="s">
@@ -3190,7 +3169,7 @@
       <c r="I8" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="J8" s="68" t="s">
+      <c r="J8" s="64" t="s">
         <v>225</v>
       </c>
     </row>
@@ -3210,10 +3189,10 @@
       <c r="E9" s="17" t="s">
         <v>163</v>
       </c>
-      <c r="F9" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="G9" s="21" t="s">
+      <c r="F9" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="20" t="s">
         <v>39</v>
       </c>
       <c r="H9" s="9" t="s">
@@ -3222,7 +3201,7 @@
       <c r="I9" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="J9" s="68" t="s">
+      <c r="J9" s="64" t="s">
         <v>219</v>
       </c>
     </row>
@@ -3242,10 +3221,10 @@
       <c r="E10" s="17">
         <v>10</v>
       </c>
-      <c r="F10" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="G10" s="21" t="s">
+      <c r="F10" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" s="20" t="s">
         <v>39</v>
       </c>
       <c r="H10" s="9" t="s">
@@ -3254,7 +3233,7 @@
       <c r="I10" s="17">
         <v>10</v>
       </c>
-      <c r="J10" s="68" t="s">
+      <c r="J10" s="64" t="s">
         <v>183</v>
       </c>
     </row>
@@ -3274,10 +3253,10 @@
       <c r="E11" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="F11" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="G11" s="21" t="s">
+      <c r="F11" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" s="20" t="s">
         <v>39</v>
       </c>
       <c r="H11" s="9" t="s">
@@ -3286,7 +3265,7 @@
       <c r="I11" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="J11" s="68" t="s">
+      <c r="J11" s="64" t="s">
         <v>226</v>
       </c>
     </row>
@@ -3306,10 +3285,10 @@
       <c r="E12" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="F12" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="G12" s="21" t="s">
+      <c r="F12" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="G12" s="20" t="s">
         <v>39</v>
       </c>
       <c r="H12" s="9" t="s">
@@ -3318,7 +3297,7 @@
       <c r="I12" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="J12" s="68" t="s">
+      <c r="J12" s="64" t="s">
         <v>227</v>
       </c>
     </row>
@@ -3338,10 +3317,10 @@
       <c r="E13" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="F13" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="G13" s="21" t="s">
+      <c r="F13" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="G13" s="20" t="s">
         <v>39</v>
       </c>
       <c r="H13" s="9" t="s">
@@ -3350,7 +3329,7 @@
       <c r="I13" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="J13" s="68" t="s">
+      <c r="J13" s="64" t="s">
         <v>220</v>
       </c>
     </row>
@@ -3438,13 +3417,13 @@
       <c r="D3" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="F3" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="G3" s="32" t="s">
+      <c r="E3" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="30" t="s">
         <v>39</v>
       </c>
       <c r="H3" s="9" t="s">
@@ -3453,7 +3432,7 @@
       <c r="I3" s="18">
         <v>1</v>
       </c>
-      <c r="J3" s="68" t="s">
+      <c r="J3" s="64" t="s">
         <v>176</v>
       </c>
     </row>
@@ -3461,22 +3440,22 @@
       <c r="A4" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="42" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" s="43" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" s="44" t="s">
-        <v>319</v>
-      </c>
-      <c r="F4" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="G4" s="47" t="s">
+      <c r="C4" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="42" t="s">
+        <v>315</v>
+      </c>
+      <c r="F4" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="45" t="s">
         <v>39</v>
       </c>
       <c r="H4" s="9" t="s">
@@ -3485,7 +3464,7 @@
       <c r="I4" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="J4" s="68" t="s">
+      <c r="J4" s="64" t="s">
         <v>184</v>
       </c>
     </row>
@@ -3502,13 +3481,13 @@
       <c r="D5" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="87" t="s">
-        <v>276</v>
-      </c>
-      <c r="F5" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="G5" s="21" t="s">
+      <c r="E5" s="82" t="s">
+        <v>272</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="20" t="s">
         <v>39</v>
       </c>
       <c r="H5" s="9" t="s">
@@ -3517,7 +3496,7 @@
       <c r="I5" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="J5" s="68" t="s">
+      <c r="J5" s="64" t="s">
         <v>185</v>
       </c>
     </row>
@@ -3535,12 +3514,12 @@
         <v>39</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>275</v>
-      </c>
-      <c r="F6" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="G6" s="21" t="s">
+        <v>271</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="20" t="s">
         <v>39</v>
       </c>
       <c r="H6" s="9" t="s">
@@ -3549,7 +3528,7 @@
       <c r="I6" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="J6" s="68" t="s">
+      <c r="J6" s="64" t="s">
         <v>186</v>
       </c>
     </row>
@@ -3566,13 +3545,13 @@
       <c r="D7" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="89" t="s">
-        <v>316</v>
-      </c>
-      <c r="F7" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="G7" s="21" t="s">
+      <c r="E7" s="84" t="s">
+        <v>312</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="20" t="s">
         <v>39</v>
       </c>
       <c r="H7" s="9" t="s">
@@ -3581,7 +3560,7 @@
       <c r="I7" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="J7" s="68" t="s">
+      <c r="J7" s="64" t="s">
         <v>187</v>
       </c>
     </row>
@@ -3599,12 +3578,12 @@
         <v>39</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>257</v>
-      </c>
-      <c r="F8" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="G8" s="21" t="s">
+        <v>253</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="20" t="s">
         <v>39</v>
       </c>
       <c r="H8" s="9" t="s">
@@ -3613,7 +3592,7 @@
       <c r="I8" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="J8" s="68" t="s">
+      <c r="J8" s="64" t="s">
         <v>188</v>
       </c>
     </row>
@@ -3630,13 +3609,13 @@
       <c r="D9" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="82" t="s">
-        <v>258</v>
-      </c>
-      <c r="F9" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="G9" s="21" t="s">
+      <c r="E9" s="77" t="s">
+        <v>254</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="20" t="s">
         <v>39</v>
       </c>
       <c r="H9" s="9" t="s">
@@ -3645,7 +3624,7 @@
       <c r="I9" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="J9" s="68" t="s">
+      <c r="J9" s="64" t="s">
         <v>189</v>
       </c>
     </row>
@@ -3663,12 +3642,12 @@
         <v>39</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>259</v>
-      </c>
-      <c r="F10" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="G10" s="21" t="s">
+        <v>255</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" s="20" t="s">
         <v>39</v>
       </c>
       <c r="H10" s="9" t="s">
@@ -3677,7 +3656,7 @@
       <c r="I10" s="18" t="s">
         <v>150</v>
       </c>
-      <c r="J10" s="68" t="s">
+      <c r="J10" s="64" t="s">
         <v>190</v>
       </c>
     </row>
@@ -3695,12 +3674,12 @@
         <v>39</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>260</v>
-      </c>
-      <c r="F11" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="G11" s="21" t="s">
+        <v>256</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" s="20" t="s">
         <v>39</v>
       </c>
       <c r="H11" s="9" t="s">
@@ -3709,7 +3688,7 @@
       <c r="I11" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="J11" s="68" t="s">
+      <c r="J11" s="64" t="s">
         <v>191</v>
       </c>
     </row>
@@ -3727,12 +3706,12 @@
         <v>39</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>261</v>
-      </c>
-      <c r="F12" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="G12" s="21" t="s">
+        <v>257</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="G12" s="20" t="s">
         <v>39</v>
       </c>
       <c r="H12" s="9" t="s">
@@ -3741,7 +3720,7 @@
       <c r="I12" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="J12" s="68" t="s">
+      <c r="J12" s="64" t="s">
         <v>192</v>
       </c>
     </row>
@@ -3853,20 +3832,20 @@
       <c r="D3" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="F3" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="G3" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="H3" s="19"/>
+      <c r="E3" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" s="9"/>
       <c r="I3" s="17">
         <v>34658</v>
       </c>
-      <c r="J3" s="68" t="s">
+      <c r="J3" s="64" t="s">
         <v>176</v>
       </c>
     </row>
@@ -3874,29 +3853,29 @@
       <c r="A4" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="42" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" s="43" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" s="50" t="s">
-        <v>311</v>
-      </c>
-      <c r="F4" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="G4" s="49" t="s">
-        <v>39</v>
-      </c>
-      <c r="H4" s="19"/>
+      <c r="C4" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="48" t="s">
+        <v>307</v>
+      </c>
+      <c r="F4" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" s="9"/>
       <c r="I4" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="J4" s="68" t="s">
+      <c r="J4" s="64" t="s">
         <v>194</v>
       </c>
     </row>
@@ -3913,20 +3892,20 @@
       <c r="D5" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="67" t="s">
+      <c r="E5" s="63" t="s">
         <v>164</v>
       </c>
-      <c r="F5" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="G5" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="H5" s="19"/>
-      <c r="I5" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="J5" s="68" t="s">
+      <c r="F5" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" s="9"/>
+      <c r="I5" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="J5" s="64" t="s">
         <v>168</v>
       </c>
     </row>
@@ -3943,20 +3922,20 @@
       <c r="D6" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="67" t="s">
+      <c r="E6" s="63" t="s">
         <v>164</v>
       </c>
-      <c r="F6" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="G6" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="H6" s="19"/>
-      <c r="I6" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="J6" s="68" t="s">
+      <c r="F6" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" s="9"/>
+      <c r="I6" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="J6" s="64" t="s">
         <v>228</v>
       </c>
     </row>
@@ -3973,20 +3952,20 @@
       <c r="D7" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="90" t="s">
-        <v>277</v>
-      </c>
-      <c r="F7" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="G7" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="H7" s="19"/>
+      <c r="E7" s="85" t="s">
+        <v>273</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" s="9"/>
       <c r="I7" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="J7" s="68" t="s">
+      <c r="J7" s="64" t="s">
         <v>229</v>
       </c>
     </row>
@@ -4003,20 +3982,20 @@
       <c r="D8" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E8" s="67" t="s">
+      <c r="E8" s="63" t="s">
         <v>164</v>
       </c>
-      <c r="F8" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="G8" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="H8" s="23"/>
+      <c r="F8" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8" s="21"/>
       <c r="I8" s="17" t="s">
         <v>193</v>
       </c>
-      <c r="J8" s="68" t="s">
+      <c r="J8" s="64" t="s">
         <v>196</v>
       </c>
     </row>
@@ -4033,20 +4012,20 @@
       <c r="D9" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="93" t="s">
-        <v>309</v>
-      </c>
-      <c r="F9" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="G9" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="H9" s="19"/>
+      <c r="E9" s="34" t="s">
+        <v>305</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="H9" s="9"/>
       <c r="I9" s="17">
         <v>17839</v>
       </c>
-      <c r="J9" s="68" t="s">
+      <c r="J9" s="64" t="s">
         <v>197</v>
       </c>
     </row>
@@ -4063,20 +4042,20 @@
       <c r="D10" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="94" t="s">
-        <v>312</v>
-      </c>
-      <c r="F10" s="94" t="s">
-        <v>39</v>
-      </c>
-      <c r="G10" s="95" t="s">
-        <v>267</v>
-      </c>
-      <c r="H10" s="23"/>
+      <c r="E10" s="85" t="s">
+        <v>308</v>
+      </c>
+      <c r="F10" s="85" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" s="88" t="s">
+        <v>263</v>
+      </c>
+      <c r="H10" s="21"/>
       <c r="I10" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="J10" s="68" t="s">
+      <c r="J10" s="64" t="s">
         <v>230</v>
       </c>
     </row>
@@ -4172,20 +4151,20 @@
       <c r="D3" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="F3" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="G3" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="H3" s="19"/>
+      <c r="E3" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" s="9"/>
       <c r="I3" s="18">
         <v>39035</v>
       </c>
-      <c r="J3" s="68" t="s">
+      <c r="J3" s="64" t="s">
         <v>166</v>
       </c>
     </row>
@@ -4193,27 +4172,27 @@
       <c r="A4" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="C4" s="42"/>
-      <c r="D4" s="43" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" s="50" t="s">
-        <v>310</v>
-      </c>
-      <c r="F4" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="G4" s="47" t="s">
-        <v>39</v>
-      </c>
-      <c r="H4" s="19"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="48" t="s">
+        <v>306</v>
+      </c>
+      <c r="F4" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" s="9"/>
       <c r="I4" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="J4" s="68" t="s">
+      <c r="J4" s="64" t="s">
         <v>167</v>
       </c>
     </row>
@@ -4230,20 +4209,20 @@
       <c r="D5" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="90" t="s">
-        <v>277</v>
-      </c>
-      <c r="F5" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="G5" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="H5" s="19"/>
+      <c r="E5" s="85" t="s">
+        <v>273</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" s="9"/>
       <c r="I5" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="J5" s="68" t="s">
+      <c r="J5" s="64" t="s">
         <v>235</v>
       </c>
     </row>
@@ -4260,20 +4239,20 @@
       <c r="D6" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="22" t="s">
+      <c r="E6" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="F6" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="G6" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="H6" s="19"/>
+      <c r="F6" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" s="9"/>
       <c r="I6" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="J6" s="68" t="s">
+      <c r="J6" s="64" t="s">
         <v>231</v>
       </c>
     </row>
@@ -4290,20 +4269,20 @@
       <c r="D7" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="F7" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="G7" s="27" t="s">
-        <v>268</v>
-      </c>
-      <c r="H7" s="19"/>
-      <c r="I7" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="J7" s="69" t="s">
+      <c r="E7" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="25" t="s">
+        <v>264</v>
+      </c>
+      <c r="H7" s="9"/>
+      <c r="I7" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="J7" s="65" t="s">
         <v>164</v>
       </c>
     </row>
@@ -4320,20 +4299,20 @@
       <c r="D8" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="26" t="s">
+      <c r="E8" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="F8" s="26" t="s">
-        <v>256</v>
-      </c>
-      <c r="G8" s="27" t="s">
-        <v>262</v>
-      </c>
-      <c r="H8" s="23"/>
+      <c r="F8" s="24" t="s">
+        <v>252</v>
+      </c>
+      <c r="G8" s="25" t="s">
+        <v>258</v>
+      </c>
+      <c r="H8" s="21"/>
       <c r="I8" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="J8" s="68" t="s">
+      <c r="J8" s="64" t="s">
         <v>169</v>
       </c>
     </row>
@@ -4350,18 +4329,18 @@
       <c r="D9" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="26" t="s">
+      <c r="E9" s="24" t="s">
         <v>162</v>
       </c>
-      <c r="F9" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="G9" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="H9" s="19"/>
+      <c r="F9" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="H9" s="9"/>
       <c r="I9" s="18"/>
-      <c r="J9" s="68" t="s">
+      <c r="J9" s="64" t="s">
         <v>168</v>
       </c>
     </row>
@@ -4378,20 +4357,20 @@
       <c r="D10" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="26" t="s">
+      <c r="E10" s="24" t="s">
         <v>162</v>
       </c>
-      <c r="F10" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="G10" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="H10" s="19"/>
-      <c r="I10" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="J10" s="68" t="s">
+      <c r="F10" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="H10" s="9"/>
+      <c r="I10" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="J10" s="64" t="s">
         <v>170</v>
       </c>
     </row>
@@ -4408,20 +4387,20 @@
       <c r="D11" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="36" t="s">
+      <c r="E11" s="34" t="s">
         <v>162</v>
       </c>
-      <c r="F11" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="G11" s="51" t="s">
-        <v>39</v>
-      </c>
-      <c r="H11" s="19"/>
-      <c r="I11" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="J11" s="69" t="s">
+      <c r="F11" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="H11" s="9"/>
+      <c r="I11" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="J11" s="65" t="s">
         <v>164</v>
       </c>
     </row>
@@ -4438,20 +4417,20 @@
       <c r="D12" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E12" s="26" t="s">
+      <c r="E12" s="24" t="s">
         <v>162</v>
       </c>
-      <c r="F12" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="G12" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="H12" s="19"/>
-      <c r="I12" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="J12" s="69" t="s">
+      <c r="F12" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G12" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="H12" s="9"/>
+      <c r="I12" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="J12" s="65" t="s">
         <v>164</v>
       </c>
     </row>
@@ -4468,20 +4447,20 @@
       <c r="D13" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E13" s="26" t="s">
+      <c r="E13" s="24" t="s">
         <v>165</v>
       </c>
-      <c r="F13" s="26" t="s">
-        <v>256</v>
-      </c>
-      <c r="G13" s="21" t="s">
-        <v>263</v>
-      </c>
-      <c r="H13" s="25"/>
+      <c r="F13" s="24" t="s">
+        <v>252</v>
+      </c>
+      <c r="G13" s="20" t="s">
+        <v>259</v>
+      </c>
+      <c r="H13" s="23"/>
       <c r="I13" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="J13" s="68" t="s">
+      <c r="J13" s="64" t="s">
         <v>171</v>
       </c>
     </row>
@@ -4498,20 +4477,20 @@
       <c r="D14" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E14" s="26" t="s">
+      <c r="E14" s="24" t="s">
         <v>165</v>
       </c>
-      <c r="F14" s="26" t="s">
-        <v>256</v>
-      </c>
-      <c r="G14" s="21" t="s">
-        <v>264</v>
-      </c>
-      <c r="H14" s="25"/>
+      <c r="F14" s="24" t="s">
+        <v>252</v>
+      </c>
+      <c r="G14" s="20" t="s">
+        <v>260</v>
+      </c>
+      <c r="H14" s="23"/>
       <c r="I14" s="18">
         <v>-1067.700435</v>
       </c>
-      <c r="J14" s="68" t="s">
+      <c r="J14" s="64" t="s">
         <v>172</v>
       </c>
     </row>
@@ -4528,20 +4507,20 @@
       <c r="D15" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E15" s="26" t="s">
+      <c r="E15" s="24" t="s">
         <v>162</v>
       </c>
-      <c r="F15" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="G15" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="H15" s="19"/>
-      <c r="I15" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="J15" s="68" t="s">
+      <c r="F15" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G15" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="H15" s="9"/>
+      <c r="I15" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="J15" s="64" t="s">
         <v>232</v>
       </c>
     </row>
@@ -4558,20 +4537,20 @@
       <c r="D16" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="26" t="s">
+      <c r="E16" s="24" t="s">
         <v>162</v>
       </c>
-      <c r="F16" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="G16" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="H16" s="19"/>
-      <c r="I16" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="J16" s="68" t="s">
+      <c r="F16" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G16" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="H16" s="9"/>
+      <c r="I16" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="J16" s="64" t="s">
         <v>236</v>
       </c>
     </row>
@@ -4586,18 +4565,18 @@
       <c r="D17" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26" t="s">
-        <v>256</v>
-      </c>
-      <c r="G17" s="27" t="s">
-        <v>266</v>
-      </c>
-      <c r="H17" s="19"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24" t="s">
+        <v>252</v>
+      </c>
+      <c r="G17" s="25" t="s">
+        <v>262</v>
+      </c>
+      <c r="H17" s="9"/>
       <c r="I17" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="J17" s="68" t="s">
+      <c r="J17" s="64" t="s">
         <v>173</v>
       </c>
     </row>
@@ -4614,20 +4593,20 @@
       <c r="D18" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E18" s="93" t="s">
-        <v>320</v>
-      </c>
-      <c r="F18" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="G18" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="H18" s="23"/>
+      <c r="E18" s="34" t="s">
+        <v>316</v>
+      </c>
+      <c r="F18" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G18" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="H18" s="21"/>
       <c r="I18" s="18">
         <v>3703994</v>
       </c>
-      <c r="J18" s="68" t="s">
+      <c r="J18" s="64" t="s">
         <v>174</v>
       </c>
     </row>
@@ -4644,20 +4623,20 @@
       <c r="D19" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E19" s="26" t="s">
+      <c r="E19" s="24" t="s">
         <v>162</v>
       </c>
-      <c r="F19" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="G19" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="H19" s="19"/>
+      <c r="F19" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G19" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="H19" s="9"/>
       <c r="I19" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="J19" s="69" t="s">
+      <c r="J19" s="65" t="s">
         <v>164</v>
       </c>
     </row>
@@ -4674,20 +4653,20 @@
       <c r="D20" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="E20" s="62" t="s">
-        <v>39</v>
-      </c>
-      <c r="F20" s="26" t="s">
-        <v>256</v>
-      </c>
-      <c r="G20" s="24" t="s">
-        <v>267</v>
-      </c>
-      <c r="H20" s="19"/>
+      <c r="E20" s="58" t="s">
+        <v>39</v>
+      </c>
+      <c r="F20" s="24" t="s">
+        <v>252</v>
+      </c>
+      <c r="G20" s="22" t="s">
+        <v>263</v>
+      </c>
+      <c r="H20" s="9"/>
       <c r="I20" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="J20" s="68" t="s">
+      <c r="J20" s="64" t="s">
         <v>233</v>
       </c>
     </row>
@@ -4704,20 +4683,20 @@
       <c r="D21" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="E21" s="26" t="s">
-        <v>261</v>
-      </c>
-      <c r="F21" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="G21" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="H21" s="19"/>
+      <c r="E21" s="24" t="s">
+        <v>257</v>
+      </c>
+      <c r="F21" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G21" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="H21" s="9"/>
       <c r="I21" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="J21" s="68" t="s">
+      <c r="J21" s="64" t="s">
         <v>234</v>
       </c>
     </row>
@@ -4734,20 +4713,20 @@
       <c r="D22" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E22" s="26" t="s">
+      <c r="E22" s="24" t="s">
         <v>162</v>
       </c>
-      <c r="F22" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="G22" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="H22" s="19"/>
-      <c r="I22" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="J22" s="69" t="s">
+      <c r="F22" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G22" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="H22" s="9"/>
+      <c r="I22" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="J22" s="65" t="s">
         <v>164</v>
       </c>
     </row>
@@ -4764,8 +4743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B91B1FF-D207-4871-B787-27544A9D3030}">
   <dimension ref="A1:P47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4822,243 +4801,243 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="54" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="54" t="s">
+    <row r="3" spans="1:10" s="52" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="56" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" s="57" t="s">
+      <c r="C3" s="54" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="I3" s="70">
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3" s="66">
         <v>50004</v>
       </c>
-      <c r="J3" s="68" t="s">
+      <c r="J3" s="64" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="54" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="54" t="s">
+    <row r="4" spans="1:10" s="52" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="55" t="s">
+      <c r="B4" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="56" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" s="58" t="s">
+      <c r="C4" s="54" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="52" t="s">
-        <v>39</v>
-      </c>
-      <c r="F4" s="52" t="s">
-        <v>39</v>
-      </c>
-      <c r="G4" s="53" t="s">
-        <v>39</v>
-      </c>
-      <c r="H4" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="I4" s="70">
+      <c r="E4" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="I4" s="66">
         <v>43</v>
       </c>
-      <c r="J4" s="68" t="s">
+      <c r="J4" s="64" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="54" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="54" t="s">
+    <row r="5" spans="1:10" s="52" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="52" t="s">
         <v>72</v>
       </c>
-      <c r="B5" s="55" t="s">
+      <c r="B5" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="56" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" s="58" t="s">
+      <c r="C5" s="54" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="52" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" s="52" t="s">
-        <v>39</v>
-      </c>
-      <c r="G5" s="53" t="s">
-        <v>39</v>
-      </c>
-      <c r="H5" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="I5" s="70">
+      <c r="E5" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="I5" s="66">
         <v>1</v>
       </c>
-      <c r="J5" s="68" t="s">
+      <c r="J5" s="64" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="54" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="54" t="s">
+    <row r="6" spans="1:10" s="52" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="55" t="s">
+      <c r="B6" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="56" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" s="58" t="s">
+      <c r="C6" s="54" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="52" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" s="52" t="s">
-        <v>39</v>
-      </c>
-      <c r="G6" s="53" t="s">
-        <v>39</v>
-      </c>
-      <c r="H6" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="I6" s="70">
+      <c r="E6" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="I6" s="66">
         <v>39035</v>
       </c>
-      <c r="J6" s="68" t="s">
+      <c r="J6" s="64" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="54" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="54" t="s">
+    <row r="7" spans="1:10" s="52" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="55" t="s">
+      <c r="B7" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="56" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="58" t="s">
+      <c r="C7" s="54" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="52" t="s">
-        <v>39</v>
-      </c>
-      <c r="F7" s="52" t="s">
-        <v>39</v>
-      </c>
-      <c r="G7" s="53" t="s">
-        <v>39</v>
-      </c>
-      <c r="H7" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="I7" s="70">
+      <c r="E7" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="I7" s="66">
         <v>63</v>
       </c>
-      <c r="J7" s="68" t="s">
+      <c r="J7" s="64" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="54" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="54" t="s">
+    <row r="8" spans="1:10" s="52" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="55" t="s">
+      <c r="B8" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="56" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" s="58" t="s">
+      <c r="C8" s="54" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="52" t="s">
-        <v>39</v>
-      </c>
-      <c r="F8" s="52" t="s">
-        <v>39</v>
-      </c>
-      <c r="G8" s="53" t="s">
-        <v>39</v>
-      </c>
-      <c r="H8" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="I8" s="70">
+      <c r="E8" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="I8" s="66">
         <v>371091</v>
       </c>
-      <c r="J8" s="68" t="s">
+      <c r="J8" s="64" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="54" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="54" t="s">
-        <v>321</v>
-      </c>
-      <c r="B9" s="55" t="s">
+    <row r="9" spans="1:10" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="52" t="s">
+        <v>317</v>
+      </c>
+      <c r="B9" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="56" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" s="59" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" s="97" t="s">
-        <v>322</v>
-      </c>
-      <c r="F9" s="93"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="71"/>
-      <c r="J9" s="68"/>
-    </row>
-    <row r="10" spans="1:10" s="54" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="54" t="s">
+      <c r="C9" s="54" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="54" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="F9" s="34"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="67"/>
+      <c r="J9" s="64"/>
+    </row>
+    <row r="10" spans="1:10" s="52" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="55" t="s">
+      <c r="B10" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="C10" s="56" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="59" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" s="86" t="s">
-        <v>317</v>
-      </c>
-      <c r="F10" s="80" t="s">
-        <v>39</v>
-      </c>
-      <c r="G10" s="81" t="s">
-        <v>39</v>
-      </c>
-      <c r="H10" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="I10" s="71" t="s">
-        <v>39</v>
-      </c>
-      <c r="J10" s="68" t="s">
+      <c r="C10" s="54" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="54" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="81" t="s">
+        <v>313</v>
+      </c>
+      <c r="F10" s="75" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" s="76" t="s">
+        <v>39</v>
+      </c>
+      <c r="H10" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="I10" s="67" t="s">
+        <v>39</v>
+      </c>
+      <c r="J10" s="64" t="s">
         <v>195</v>
       </c>
     </row>
@@ -5072,25 +5051,25 @@
       <c r="C11" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" s="83" t="s">
-        <v>319</v>
-      </c>
-      <c r="F11" s="60" t="s">
-        <v>39</v>
-      </c>
-      <c r="G11" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="H11" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="I11" s="72" t="s">
-        <v>39</v>
-      </c>
-      <c r="J11" s="68" t="s">
+      <c r="D11" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="78" t="s">
+        <v>315</v>
+      </c>
+      <c r="F11" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="H11" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="I11" s="68" t="s">
+        <v>39</v>
+      </c>
+      <c r="J11" s="64" t="s">
         <v>198</v>
       </c>
     </row>
@@ -5104,25 +5083,25 @@
       <c r="C12" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" s="83" t="s">
-        <v>265</v>
-      </c>
-      <c r="F12" s="60" t="s">
-        <v>39</v>
-      </c>
-      <c r="G12" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="H12" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="I12" s="72" t="s">
-        <v>39</v>
-      </c>
-      <c r="J12" s="68" t="s">
+      <c r="D12" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="78" t="s">
+        <v>261</v>
+      </c>
+      <c r="F12" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G12" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="H12" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="I12" s="68" t="s">
+        <v>39</v>
+      </c>
+      <c r="J12" s="64" t="s">
         <v>199</v>
       </c>
     </row>
@@ -5136,25 +5115,25 @@
       <c r="C13" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" s="84" t="s">
-        <v>318</v>
-      </c>
-      <c r="F13" s="60" t="s">
-        <v>39</v>
-      </c>
-      <c r="G13" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="H13" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="I13" s="72" t="s">
-        <v>39</v>
-      </c>
-      <c r="J13" s="68" t="s">
+      <c r="D13" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="79" t="s">
+        <v>314</v>
+      </c>
+      <c r="F13" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G13" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="H13" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="I13" s="68" t="s">
+        <v>39</v>
+      </c>
+      <c r="J13" s="64" t="s">
         <v>180</v>
       </c>
     </row>
@@ -5162,35 +5141,35 @@
       <c r="A14" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="41" t="s">
+      <c r="B14" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="C14" s="42" t="s">
-        <v>39</v>
-      </c>
-      <c r="D14" s="42" t="s">
-        <v>39</v>
-      </c>
-      <c r="E14" s="85" t="s">
-        <v>248</v>
-      </c>
-      <c r="F14" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="G14" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="H14" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="I14" s="72" t="s">
-        <v>39</v>
-      </c>
-      <c r="J14" s="68" t="s">
+      <c r="C14" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="80" t="s">
+        <v>247</v>
+      </c>
+      <c r="F14" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="G14" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="H14" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="I14" s="68" t="s">
+        <v>39</v>
+      </c>
+      <c r="J14" s="64" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="15" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>0</v>
       </c>
@@ -5203,58 +5182,58 @@
       <c r="D15" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E15" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="F15" s="36" t="s">
-        <v>256</v>
-      </c>
-      <c r="G15" s="21" t="s">
-        <v>269</v>
-      </c>
-      <c r="H15" s="40" t="s">
+      <c r="E15" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15" s="34" t="s">
+        <v>252</v>
+      </c>
+      <c r="G15" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="H15" s="38" t="s">
         <v>39</v>
       </c>
       <c r="I15" s="18">
         <v>1</v>
       </c>
-      <c r="J15" s="68" t="s">
+      <c r="J15" s="64" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="16" spans="1:10" s="54" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="54" t="s">
+    <row r="16" spans="1:10" s="52" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="52" t="s">
         <v>152</v>
       </c>
-      <c r="B16" s="55" t="s">
+      <c r="B16" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="56" t="s">
+      <c r="C16" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="58" t="s">
+      <c r="D16" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="26" t="s">
+      <c r="E16" s="24" t="s">
         <v>162</v>
       </c>
-      <c r="F16" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="G16" s="51" t="s">
-        <v>39</v>
-      </c>
-      <c r="H16" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="I16" s="70">
+      <c r="F16" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="G16" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="H16" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="I16" s="66">
         <v>5363</v>
       </c>
-      <c r="J16" s="68" t="s">
+      <c r="J16" s="64" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="17" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>96</v>
       </c>
@@ -5267,26 +5246,26 @@
       <c r="D17" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E17" s="26" t="s">
+      <c r="E17" s="24" t="s">
         <v>162</v>
       </c>
-      <c r="F17" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="G17" s="51" t="s">
-        <v>39</v>
-      </c>
-      <c r="H17" s="40" t="s">
+      <c r="F17" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="G17" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="H17" s="38" t="s">
         <v>39</v>
       </c>
       <c r="I17" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="J17" s="69" t="s">
+      <c r="J17" s="65" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="18" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>95</v>
       </c>
@@ -5299,54 +5278,54 @@
       <c r="D18" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E18" s="26" t="s">
+      <c r="E18" s="24" t="s">
         <v>162</v>
       </c>
-      <c r="F18" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="G18" s="51" t="s">
-        <v>39</v>
-      </c>
-      <c r="H18" s="40" t="s">
+      <c r="F18" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="G18" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="H18" s="38" t="s">
         <v>39</v>
       </c>
       <c r="I18" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="J18" s="69" t="s">
+      <c r="J18" s="65" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="19" spans="1:10" s="39" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A19" s="54" t="s">
+    <row r="19" spans="1:10" s="37" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A19" s="52" t="s">
         <v>86</v>
       </c>
-      <c r="B19" s="55" t="s">
+      <c r="B19" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="55" t="s">
+      <c r="C19" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="58" t="s">
+      <c r="D19" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="E19" s="26" t="s">
+      <c r="E19" s="24" t="s">
         <v>162</v>
       </c>
-      <c r="F19" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="G19" s="51" t="s">
-        <v>39</v>
-      </c>
-      <c r="H19" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="I19" s="70" t="s">
+      <c r="F19" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="G19" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="H19" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="I19" s="66" t="s">
         <v>157</v>
       </c>
-      <c r="J19" s="68" t="s">
+      <c r="J19" s="64" t="s">
         <v>237</v>
       </c>
     </row>
@@ -5363,22 +5342,22 @@
       <c r="D20" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E20" s="26" t="s">
+      <c r="E20" s="24" t="s">
         <v>162</v>
       </c>
-      <c r="F20" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="G20" s="51" t="s">
-        <v>39</v>
-      </c>
-      <c r="H20" s="40" t="s">
+      <c r="F20" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="G20" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="H20" s="38" t="s">
         <v>39</v>
       </c>
       <c r="I20" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="J20" s="69" t="s">
+      <c r="J20" s="65" t="s">
         <v>164</v>
       </c>
     </row>
@@ -5395,26 +5374,26 @@
       <c r="D21" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E21" s="26" t="s">
+      <c r="E21" s="24" t="s">
         <v>162</v>
       </c>
-      <c r="F21" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="G21" s="51" t="s">
-        <v>39</v>
-      </c>
-      <c r="H21" s="40" t="s">
+      <c r="F21" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="G21" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="H21" s="38" t="s">
         <v>39</v>
       </c>
       <c r="I21" s="18" t="s">
         <v>139</v>
       </c>
-      <c r="J21" s="68" t="s">
+      <c r="J21" s="64" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="22" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>89</v>
       </c>
@@ -5427,22 +5406,22 @@
       <c r="D22" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E22" s="26" t="s">
+      <c r="E22" s="24" t="s">
         <v>162</v>
       </c>
-      <c r="F22" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="G22" s="51" t="s">
-        <v>39</v>
-      </c>
-      <c r="H22" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="I22" s="72" t="s">
-        <v>39</v>
-      </c>
-      <c r="J22" s="69" t="s">
+      <c r="F22" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="G22" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="H22" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="I22" s="68" t="s">
+        <v>39</v>
+      </c>
+      <c r="J22" s="65" t="s">
         <v>164</v>
       </c>
     </row>
@@ -5459,22 +5438,22 @@
       <c r="D23" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E23" s="26" t="s">
+      <c r="E23" s="24" t="s">
         <v>162</v>
       </c>
-      <c r="F23" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="G23" s="51" t="s">
-        <v>39</v>
-      </c>
-      <c r="H23" s="40" t="s">
+      <c r="F23" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="G23" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="H23" s="38" t="s">
         <v>39</v>
       </c>
       <c r="I23" s="18">
         <v>5200</v>
       </c>
-      <c r="J23" s="68" t="s">
+      <c r="J23" s="64" t="s">
         <v>201</v>
       </c>
     </row>
@@ -5491,26 +5470,26 @@
       <c r="D24" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E24" s="65" t="s">
-        <v>39</v>
-      </c>
-      <c r="F24" s="36" t="s">
-        <v>256</v>
-      </c>
-      <c r="G24" s="21" t="s">
-        <v>273</v>
-      </c>
-      <c r="H24" s="40" t="s">
+      <c r="E24" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="F24" s="34" t="s">
+        <v>252</v>
+      </c>
+      <c r="G24" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="H24" s="38" t="s">
         <v>39</v>
       </c>
       <c r="I24" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="J24" s="68" t="s">
+      <c r="J24" s="64" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="25" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>90</v>
       </c>
@@ -5523,22 +5502,22 @@
       <c r="D25" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E25" s="26" t="s">
+      <c r="E25" s="24" t="s">
         <v>162</v>
       </c>
-      <c r="F25" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="G25" s="51" t="s">
-        <v>39</v>
-      </c>
-      <c r="H25" s="40" t="s">
+      <c r="F25" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="G25" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="H25" s="38" t="s">
         <v>39</v>
       </c>
       <c r="I25" s="18">
         <v>0</v>
       </c>
-      <c r="J25" s="68" t="s">
+      <c r="J25" s="64" t="s">
         <v>204</v>
       </c>
     </row>
@@ -5555,22 +5534,22 @@
       <c r="D26" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E26" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="F26" s="36" t="s">
-        <v>256</v>
-      </c>
-      <c r="G26" s="21" t="s">
-        <v>274</v>
-      </c>
-      <c r="H26" s="40" t="s">
+      <c r="E26" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="F26" s="34" t="s">
+        <v>252</v>
+      </c>
+      <c r="G26" s="20" t="s">
+        <v>270</v>
+      </c>
+      <c r="H26" s="38" t="s">
         <v>39</v>
       </c>
       <c r="I26" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="J26" s="68" t="s">
+      <c r="J26" s="64" t="s">
         <v>205</v>
       </c>
     </row>
@@ -5587,22 +5566,22 @@
       <c r="D27" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E27" s="62" t="s">
-        <v>39</v>
-      </c>
-      <c r="F27" s="36" t="s">
-        <v>256</v>
-      </c>
-      <c r="G27" s="21" t="s">
-        <v>283</v>
-      </c>
-      <c r="H27" s="40" t="s">
+      <c r="E27" s="58" t="s">
+        <v>39</v>
+      </c>
+      <c r="F27" s="34" t="s">
+        <v>252</v>
+      </c>
+      <c r="G27" s="20" t="s">
+        <v>279</v>
+      </c>
+      <c r="H27" s="38" t="s">
         <v>39</v>
       </c>
       <c r="I27" s="18" t="s">
         <v>137</v>
       </c>
-      <c r="J27" s="68" t="s">
+      <c r="J27" s="64" t="s">
         <v>206</v>
       </c>
     </row>
@@ -5613,32 +5592,32 @@
       <c r="B28" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C28" s="19" t="s">
+      <c r="C28" s="9" t="s">
         <v>39</v>
       </c>
       <c r="D28" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E28" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="F28" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="G28" s="21" t="s">
-        <v>270</v>
-      </c>
-      <c r="H28" s="40" t="s">
+      <c r="E28" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="F28" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="G28" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="H28" s="38" t="s">
         <v>39</v>
       </c>
       <c r="I28" s="18" t="s">
         <v>158</v>
       </c>
-      <c r="J28" s="68" t="s">
+      <c r="J28" s="64" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="29" spans="1:10" s="39" customFormat="1" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" s="37" customFormat="1" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>155</v>
       </c>
@@ -5651,22 +5630,22 @@
       <c r="D29" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E29" s="26" t="s">
+      <c r="E29" s="24" t="s">
         <v>162</v>
       </c>
-      <c r="F29" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="G29" s="51" t="s">
-        <v>39</v>
-      </c>
-      <c r="H29" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="I29" s="72" t="s">
-        <v>39</v>
-      </c>
-      <c r="J29" s="68" t="s">
+      <c r="F29" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="G29" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="H29" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="I29" s="68" t="s">
+        <v>39</v>
+      </c>
+      <c r="J29" s="64" t="s">
         <v>241</v>
       </c>
     </row>
@@ -5683,22 +5662,22 @@
       <c r="D30" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E30" s="79">
+      <c r="E30" s="74">
         <v>44196</v>
       </c>
-      <c r="F30" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="G30" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="H30" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="I30" s="73">
+      <c r="F30" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="G30" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="H30" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="I30" s="69">
         <v>44196</v>
       </c>
-      <c r="J30" s="68" t="s">
+      <c r="J30" s="64" t="s">
         <v>208</v>
       </c>
     </row>
@@ -5715,22 +5694,22 @@
       <c r="D31" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E31" s="79">
+      <c r="E31" s="74">
         <v>43831</v>
       </c>
-      <c r="F31" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="G31" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="H31" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="I31" s="73">
+      <c r="F31" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="G31" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="H31" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="I31" s="69">
         <v>43831</v>
       </c>
-      <c r="J31" s="68" t="s">
+      <c r="J31" s="64" t="s">
         <v>209</v>
       </c>
     </row>
@@ -5747,22 +5726,22 @@
       <c r="D32" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E32" s="26" t="s">
+      <c r="E32" s="24" t="s">
         <v>162</v>
       </c>
-      <c r="F32" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="G32" s="51" t="s">
-        <v>39</v>
-      </c>
-      <c r="H32" s="40" t="s">
+      <c r="F32" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="G32" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="H32" s="38" t="s">
         <v>39</v>
       </c>
       <c r="I32" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="J32" s="69" t="s">
+      <c r="J32" s="65" t="s">
         <v>164</v>
       </c>
     </row>
@@ -5773,28 +5752,28 @@
       <c r="B33" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C33" s="19" t="s">
+      <c r="C33" s="9" t="s">
         <v>39</v>
       </c>
       <c r="D33" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E33" s="65" t="s">
-        <v>39</v>
-      </c>
-      <c r="F33" s="36" t="s">
-        <v>256</v>
-      </c>
-      <c r="G33" s="21" t="s">
-        <v>271</v>
-      </c>
-      <c r="H33" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="I33" s="72" t="s">
-        <v>39</v>
-      </c>
-      <c r="J33" s="68" t="s">
+      <c r="E33" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="F33" s="34" t="s">
+        <v>252</v>
+      </c>
+      <c r="G33" s="20" t="s">
+        <v>267</v>
+      </c>
+      <c r="H33" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="I33" s="68" t="s">
+        <v>39</v>
+      </c>
+      <c r="J33" s="64" t="s">
         <v>210</v>
       </c>
     </row>
@@ -5811,22 +5790,22 @@
       <c r="D34" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E34" s="26" t="s">
+      <c r="E34" s="24" t="s">
         <v>162</v>
       </c>
-      <c r="F34" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="G34" s="51" t="s">
-        <v>39</v>
-      </c>
-      <c r="H34" s="40" t="s">
+      <c r="F34" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="G34" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="H34" s="38" t="s">
         <v>39</v>
       </c>
       <c r="I34" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="J34" s="69" t="s">
+      <c r="J34" s="65" t="s">
         <v>164</v>
       </c>
     </row>
@@ -5843,26 +5822,26 @@
       <c r="D35" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E35" s="26" t="s">
+      <c r="E35" s="24" t="s">
         <v>162</v>
       </c>
-      <c r="F35" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="G35" s="51" t="s">
-        <v>39</v>
-      </c>
-      <c r="H35" s="40" t="s">
+      <c r="F35" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="G35" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="H35" s="38" t="s">
         <v>39</v>
       </c>
       <c r="I35" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="J35" s="68" t="s">
+      <c r="J35" s="64" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="36" spans="1:16" s="54" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:16" s="52" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
         <v>102</v>
       </c>
@@ -5875,54 +5854,54 @@
       <c r="D36" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E36" s="26" t="s">
+      <c r="E36" s="24" t="s">
         <v>162</v>
       </c>
-      <c r="F36" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="G36" s="51" t="s">
-        <v>39</v>
-      </c>
-      <c r="H36" s="40" t="s">
+      <c r="F36" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="G36" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="H36" s="38" t="s">
         <v>39</v>
       </c>
       <c r="I36" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="J36" s="68" t="s">
+      <c r="J36" s="64" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A37" s="54" t="s">
+      <c r="A37" s="52" t="s">
         <v>156</v>
       </c>
-      <c r="B37" s="55" t="s">
+      <c r="B37" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="C37" s="59" t="s">
-        <v>39</v>
-      </c>
-      <c r="D37" s="58" t="s">
-        <v>39</v>
-      </c>
-      <c r="E37" s="64" t="s">
-        <v>39</v>
-      </c>
-      <c r="F37" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="G37" s="88">
-        <v>44032</v>
-      </c>
-      <c r="H37" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="I37" s="74">
+      <c r="C37" s="54" t="s">
+        <v>39</v>
+      </c>
+      <c r="D37" s="56" t="s">
+        <v>39</v>
+      </c>
+      <c r="E37" s="60" t="s">
+        <v>39</v>
+      </c>
+      <c r="F37" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="G37" s="83">
+        <v>44592</v>
+      </c>
+      <c r="H37" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="I37" s="70">
         <v>43874</v>
       </c>
-      <c r="J37" s="68" t="s">
+      <c r="J37" s="64" t="s">
         <v>211</v>
       </c>
     </row>
@@ -5939,22 +5918,22 @@
       <c r="D38" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E38" s="26" t="s">
+      <c r="E38" s="24" t="s">
         <v>162</v>
       </c>
-      <c r="F38" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="G38" s="51" t="s">
-        <v>39</v>
-      </c>
-      <c r="H38" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="I38" s="75">
+      <c r="F38" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="G38" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="H38" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="I38" s="71">
         <v>33187</v>
       </c>
-      <c r="J38" s="69" t="s">
+      <c r="J38" s="65" t="s">
         <v>164</v>
       </c>
     </row>
@@ -5971,22 +5950,22 @@
       <c r="D39" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E39" s="26" t="s">
+      <c r="E39" s="24" t="s">
         <v>162</v>
       </c>
-      <c r="F39" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="G39" s="51" t="s">
-        <v>39</v>
-      </c>
-      <c r="H39" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="I39" s="72" t="s">
-        <v>39</v>
-      </c>
-      <c r="J39" s="68" t="s">
+      <c r="F39" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="G39" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="H39" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="I39" s="68" t="s">
+        <v>39</v>
+      </c>
+      <c r="J39" s="64" t="s">
         <v>212</v>
       </c>
     </row>
@@ -6003,20 +5982,20 @@
       <c r="D40" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E40" s="26" t="s">
+      <c r="E40" s="24" t="s">
         <v>162</v>
       </c>
-      <c r="F40" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="G40" s="51" t="s">
-        <v>39</v>
-      </c>
-      <c r="H40" s="39"/>
-      <c r="I40" s="72" t="s">
-        <v>39</v>
-      </c>
-      <c r="J40" s="68" t="s">
+      <c r="F40" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="G40" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="H40" s="37"/>
+      <c r="I40" s="68" t="s">
+        <v>39</v>
+      </c>
+      <c r="J40" s="64" t="s">
         <v>213</v>
       </c>
     </row>
@@ -6033,22 +6012,22 @@
       <c r="D41" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E41" s="26" t="s">
+      <c r="E41" s="24" t="s">
         <v>162</v>
       </c>
-      <c r="F41" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="G41" s="51" t="s">
-        <v>39</v>
-      </c>
-      <c r="H41" s="40" t="s">
+      <c r="F41" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="G41" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="H41" s="38" t="s">
         <v>39</v>
       </c>
       <c r="I41" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="J41" s="68" t="s">
+      <c r="J41" s="64" t="s">
         <v>242</v>
       </c>
     </row>
@@ -6065,28 +6044,28 @@
       <c r="D42" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E42" s="26" t="s">
+      <c r="E42" s="24" t="s">
         <v>162</v>
       </c>
-      <c r="F42" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="G42" s="51" t="s">
-        <v>39</v>
-      </c>
-      <c r="H42" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="I42" s="72" t="s">
-        <v>39</v>
-      </c>
-      <c r="J42" s="69" t="s">
+      <c r="F42" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="G42" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="H42" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="I42" s="68" t="s">
+        <v>39</v>
+      </c>
+      <c r="J42" s="65" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="43" spans="1:16" s="54" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:16" s="52" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="B43" s="6" t="s">
         <v>35</v>
@@ -6099,15 +6078,15 @@
       </c>
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
-      <c r="G43" s="96"/>
-      <c r="H43" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="I43" s="72" t="s">
-        <v>314</v>
-      </c>
-      <c r="J43" s="68" t="s">
-        <v>315</v>
+      <c r="G43" s="89"/>
+      <c r="H43" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="I43" s="68" t="s">
+        <v>310</v>
+      </c>
+      <c r="J43" s="64" t="s">
+        <v>311</v>
       </c>
       <c r="K43" s="5"/>
       <c r="L43" s="5"/>
@@ -6129,26 +6108,26 @@
       <c r="D44" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E44" s="26" t="s">
+      <c r="E44" s="24" t="s">
         <v>162</v>
       </c>
-      <c r="F44" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="G44" s="51" t="s">
-        <v>39</v>
-      </c>
-      <c r="H44" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="I44" s="72" t="s">
-        <v>39</v>
-      </c>
-      <c r="J44" s="68" t="s">
+      <c r="F44" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="G44" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="H44" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="I44" s="68" t="s">
+        <v>39</v>
+      </c>
+      <c r="J44" s="64" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="45" spans="1:16" s="54" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:16" s="52" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
         <v>104</v>
       </c>
@@ -6161,54 +6140,54 @@
       <c r="D45" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E45" s="26" t="s">
+      <c r="E45" s="24" t="s">
         <v>162</v>
       </c>
-      <c r="F45" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="G45" s="51" t="s">
-        <v>39</v>
-      </c>
-      <c r="H45" s="40" t="s">
+      <c r="F45" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="G45" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="H45" s="38" t="s">
         <v>39</v>
       </c>
       <c r="I45" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="J45" s="69" t="s">
+      <c r="J45" s="65" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A46" s="54" t="s">
-        <v>323</v>
-      </c>
-      <c r="B46" s="55" t="s">
+      <c r="A46" s="52" t="s">
+        <v>319</v>
+      </c>
+      <c r="B46" s="53" t="s">
         <v>107</v>
       </c>
-      <c r="C46" s="56" t="s">
+      <c r="C46" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="D46" s="58" t="s">
+      <c r="D46" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="E46" s="26" t="s">
+      <c r="E46" s="24" t="s">
         <v>162</v>
       </c>
-      <c r="F46" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="G46" s="51" t="s">
-        <v>39</v>
-      </c>
-      <c r="H46" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="I46" s="70" t="s">
+      <c r="F46" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="G46" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="H46" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="I46" s="66" t="s">
         <v>134</v>
       </c>
-      <c r="J46" s="68" t="s">
+      <c r="J46" s="64" t="s">
         <v>215</v>
       </c>
     </row>
@@ -6225,22 +6204,22 @@
       <c r="D47" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E47" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="F47" s="36" t="s">
-        <v>256</v>
-      </c>
-      <c r="G47" s="21" t="s">
-        <v>272</v>
-      </c>
-      <c r="H47" s="40" t="s">
+      <c r="E47" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="F47" s="34" t="s">
+        <v>252</v>
+      </c>
+      <c r="G47" s="20" t="s">
+        <v>268</v>
+      </c>
+      <c r="H47" s="38" t="s">
         <v>39</v>
       </c>
       <c r="I47" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="J47" s="68" t="s">
+      <c r="J47" s="64" t="s">
         <v>216</v>
       </c>
     </row>
@@ -6265,32 +6244,32 @@
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="63"/>
-      <c r="B1" s="63"/>
+      <c r="A1" s="59"/>
+      <c r="B1" s="59"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="63"/>
-      <c r="B2" s="63"/>
+      <c r="A2" s="59"/>
+      <c r="B2" s="59"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="63"/>
-      <c r="B3" s="63"/>
+      <c r="A3" s="59"/>
+      <c r="B3" s="59"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="63"/>
-      <c r="B4" s="63"/>
+      <c r="A4" s="59"/>
+      <c r="B4" s="59"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="63"/>
-      <c r="B5" s="63"/>
+      <c r="A5" s="59"/>
+      <c r="B5" s="59"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="63"/>
-      <c r="B6" s="63"/>
+      <c r="A6" s="59"/>
+      <c r="B6" s="59"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="63"/>
-      <c r="B7" s="63"/>
+      <c r="A7" s="59"/>
+      <c r="B7" s="59"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6312,16 +6291,16 @@
   <sheetData>
     <row r="1" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="C1" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="D1" t="s">
-        <v>286</v>
-      </c>
-      <c r="E1" s="92" t="s">
-        <v>308</v>
+        <v>282</v>
+      </c>
+      <c r="E1" s="87" t="s">
+        <v>304</v>
       </c>
       <c r="G1" t="str">
         <f>""""&amp;B1&amp;""""&amp;" : "&amp;""""&amp;E1&amp;""""&amp;","</f>
@@ -6330,16 +6309,16 @@
     </row>
     <row r="2" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="C2" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="D2" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="E2" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="G2" t="str">
         <f t="shared" ref="G2:G11" si="0">""""&amp;B2&amp;""""&amp;" : "&amp;""""&amp;E2&amp;""""&amp;","</f>
@@ -6348,15 +6327,15 @@
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C3" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="D3" t="s">
-        <v>290</v>
-      </c>
-      <c r="E3" s="92" t="s">
+        <v>286</v>
+      </c>
+      <c r="E3" s="87" t="s">
         <v>110</v>
       </c>
       <c r="G3" t="str">
@@ -6366,16 +6345,16 @@
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="C4" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="D4" t="s">
-        <v>292</v>
-      </c>
-      <c r="E4" s="92" t="s">
-        <v>307</v>
+        <v>288</v>
+      </c>
+      <c r="E4" s="87" t="s">
+        <v>303</v>
       </c>
       <c r="G4" t="str">
         <f t="shared" si="0"/>
@@ -6384,15 +6363,15 @@
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C5" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="D5" t="s">
-        <v>294</v>
-      </c>
-      <c r="E5" s="92" t="s">
+        <v>290</v>
+      </c>
+      <c r="E5" s="87" t="s">
         <v>110</v>
       </c>
       <c r="G5" t="str">
@@ -6402,16 +6381,16 @@
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C6" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="D6" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="E6" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="G6" t="str">
         <f t="shared" si="0"/>
@@ -6420,15 +6399,15 @@
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="D7" t="s">
-        <v>298</v>
-      </c>
-      <c r="E7" s="92" t="s">
+        <v>294</v>
+      </c>
+      <c r="E7" s="87" t="s">
         <v>110</v>
       </c>
       <c r="G7" t="str">
@@ -6438,16 +6417,16 @@
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C8" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="D8" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="E8" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="G8" t="str">
         <f t="shared" si="0"/>
@@ -6456,15 +6435,15 @@
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C9" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="D9" t="s">
-        <v>302</v>
-      </c>
-      <c r="E9" s="92" t="s">
+        <v>298</v>
+      </c>
+      <c r="E9" s="87" t="s">
         <v>110</v>
       </c>
       <c r="G9" t="str">
@@ -6474,16 +6453,16 @@
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
+        <v>299</v>
+      </c>
+      <c r="C10" t="s">
+        <v>281</v>
+      </c>
+      <c r="D10" t="s">
+        <v>300</v>
+      </c>
+      <c r="E10" s="87" t="s">
         <v>303</v>
-      </c>
-      <c r="C10" t="s">
-        <v>285</v>
-      </c>
-      <c r="D10" t="s">
-        <v>304</v>
-      </c>
-      <c r="E10" s="92" t="s">
-        <v>307</v>
       </c>
       <c r="G10" t="str">
         <f t="shared" si="0"/>
@@ -6492,15 +6471,15 @@
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C11" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="D11" t="s">
-        <v>306</v>
-      </c>
-      <c r="E11" s="92" t="s">
+        <v>302</v>
+      </c>
+      <c r="E11" s="87" t="s">
         <v>119</v>
       </c>
       <c r="G11" t="str">

--- a/Nevada/WaterAllocation/NV_POD_Allocation Schema Mapping to WaDE_QA.xlsx
+++ b/Nevada/WaterAllocation/NV_POD_Allocation Schema Mapping to WaDE_QA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\Nevada\WaterAllocation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC31E3EF-F70E-4EF1-90A2-AB5861175CF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCAA7A01-E883-4D34-926E-F9E45A73116F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="1692" windowWidth="23256" windowHeight="12456" tabRatio="714" activeTab="6" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
+    <workbookView xWindow="-23148" yWindow="1692" windowWidth="23256" windowHeight="12456" tabRatio="714" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping Notes" sheetId="10" r:id="rId1"/>
@@ -20,8 +20,7 @@
     <sheet name="WaterSources" sheetId="3" r:id="rId5"/>
     <sheet name="Sites" sheetId="5" r:id="rId6"/>
     <sheet name="AllocationsAmounts_fact" sheetId="7" r:id="rId7"/>
-    <sheet name="BeneficialUseCategory" sheetId="9" r:id="rId8"/>
-    <sheet name="Misc" sheetId="11" r:id="rId9"/>
+    <sheet name="Misc" sheetId="11" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1825,7 +1824,7 @@
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2000,9 +1999,6 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="21" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2448,18 +2444,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7154D4B-C952-456C-B506-1C3DB2041E3D}">
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B3" sqref="B2:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" style="73" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.44140625" style="72" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="79" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="72" t="s">
         <v>243</v>
       </c>
       <c r="B1" t="s">
@@ -2467,7 +2463,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="72" t="s">
         <v>244</v>
       </c>
       <c r="B2" t="s">
@@ -2475,22 +2471,22 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="73" t="s">
+      <c r="A6" s="72" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B7" s="62" t="s">
+      <c r="B7" s="61" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B8" s="62" t="s">
+      <c r="B8" s="61" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="73" t="s">
+      <c r="A13" s="72" t="s">
         <v>246</v>
       </c>
       <c r="B13" t="s">
@@ -2498,12 +2494,12 @@
       </c>
     </row>
     <row r="14" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B14" s="86" t="s">
+      <c r="B14" s="85" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B15" s="86" t="s">
+      <c r="B15" s="85" t="s">
         <v>275</v>
       </c>
     </row>
@@ -2617,7 +2613,7 @@
       <c r="I3" s="17">
         <v>11</v>
       </c>
-      <c r="J3" s="64" t="s">
+      <c r="J3" s="63" t="s">
         <v>176</v>
       </c>
     </row>
@@ -2649,7 +2645,7 @@
       <c r="I4" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="J4" s="64" t="s">
+      <c r="J4" s="63" t="s">
         <v>195</v>
       </c>
     </row>
@@ -2681,7 +2677,7 @@
       <c r="I5" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="J5" s="64" t="s">
+      <c r="J5" s="63" t="s">
         <v>221</v>
       </c>
     </row>
@@ -2710,10 +2706,10 @@
       <c r="H6" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="I6" s="72">
+      <c r="I6" s="71">
         <v>0.5</v>
       </c>
-      <c r="J6" s="64" t="s">
+      <c r="J6" s="63" t="s">
         <v>178</v>
       </c>
     </row>
@@ -2745,7 +2741,7 @@
       <c r="I7" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="J7" s="64" t="s">
+      <c r="J7" s="63" t="s">
         <v>177</v>
       </c>
     </row>
@@ -2777,7 +2773,7 @@
       <c r="I8" s="19" t="s">
         <v>217</v>
       </c>
-      <c r="J8" s="64" t="s">
+      <c r="J8" s="63" t="s">
         <v>223</v>
       </c>
     </row>
@@ -2807,7 +2803,7 @@
         <v>39</v>
       </c>
       <c r="I9" s="18"/>
-      <c r="J9" s="64" t="s">
+      <c r="J9" s="63" t="s">
         <v>218</v>
       </c>
     </row>
@@ -2839,7 +2835,7 @@
       <c r="I10" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="J10" s="64" t="s">
+      <c r="J10" s="63" t="s">
         <v>175</v>
       </c>
     </row>
@@ -2856,7 +2852,7 @@
       <c r="D11" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="62" t="s">
+      <c r="E11" s="61" t="s">
         <v>323</v>
       </c>
       <c r="F11" s="19" t="s">
@@ -2871,7 +2867,7 @@
       <c r="I11" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="J11" s="64" t="s">
+      <c r="J11" s="63" t="s">
         <v>179</v>
       </c>
     </row>
@@ -2903,7 +2899,7 @@
       <c r="I12" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="J12" s="64" t="s">
+      <c r="J12" s="63" t="s">
         <v>222</v>
       </c>
     </row>
@@ -3009,7 +3005,7 @@
       <c r="I3" s="17">
         <v>16</v>
       </c>
-      <c r="J3" s="64" t="s">
+      <c r="J3" s="63" t="s">
         <v>176</v>
       </c>
     </row>
@@ -3041,7 +3037,7 @@
       <c r="I4" s="17" t="s">
         <v>142</v>
       </c>
-      <c r="J4" s="64" t="s">
+      <c r="J4" s="63" t="s">
         <v>180</v>
       </c>
     </row>
@@ -3073,7 +3069,7 @@
       <c r="I5" s="17">
         <v>1</v>
       </c>
-      <c r="J5" s="64" t="s">
+      <c r="J5" s="63" t="s">
         <v>181</v>
       </c>
     </row>
@@ -3105,7 +3101,7 @@
       <c r="I6" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="J6" s="64" t="s">
+      <c r="J6" s="63" t="s">
         <v>182</v>
       </c>
     </row>
@@ -3137,7 +3133,7 @@
       <c r="I7" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="J7" s="64" t="s">
+      <c r="J7" s="63" t="s">
         <v>224</v>
       </c>
     </row>
@@ -3169,7 +3165,7 @@
       <c r="I8" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="J8" s="64" t="s">
+      <c r="J8" s="63" t="s">
         <v>225</v>
       </c>
     </row>
@@ -3201,7 +3197,7 @@
       <c r="I9" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="J9" s="64" t="s">
+      <c r="J9" s="63" t="s">
         <v>219</v>
       </c>
     </row>
@@ -3233,7 +3229,7 @@
       <c r="I10" s="17">
         <v>10</v>
       </c>
-      <c r="J10" s="64" t="s">
+      <c r="J10" s="63" t="s">
         <v>183</v>
       </c>
     </row>
@@ -3265,7 +3261,7 @@
       <c r="I11" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="J11" s="64" t="s">
+      <c r="J11" s="63" t="s">
         <v>226</v>
       </c>
     </row>
@@ -3297,7 +3293,7 @@
       <c r="I12" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="J12" s="64" t="s">
+      <c r="J12" s="63" t="s">
         <v>227</v>
       </c>
     </row>
@@ -3329,7 +3325,7 @@
       <c r="I13" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="J13" s="64" t="s">
+      <c r="J13" s="63" t="s">
         <v>220</v>
       </c>
     </row>
@@ -3432,7 +3428,7 @@
       <c r="I3" s="18">
         <v>1</v>
       </c>
-      <c r="J3" s="64" t="s">
+      <c r="J3" s="63" t="s">
         <v>176</v>
       </c>
     </row>
@@ -3464,7 +3460,7 @@
       <c r="I4" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="J4" s="64" t="s">
+      <c r="J4" s="63" t="s">
         <v>184</v>
       </c>
     </row>
@@ -3481,7 +3477,7 @@
       <c r="D5" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="82" t="s">
+      <c r="E5" s="81" t="s">
         <v>272</v>
       </c>
       <c r="F5" s="19" t="s">
@@ -3496,7 +3492,7 @@
       <c r="I5" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="J5" s="64" t="s">
+      <c r="J5" s="63" t="s">
         <v>185</v>
       </c>
     </row>
@@ -3528,7 +3524,7 @@
       <c r="I6" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="J6" s="64" t="s">
+      <c r="J6" s="63" t="s">
         <v>186</v>
       </c>
     </row>
@@ -3545,7 +3541,7 @@
       <c r="D7" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="84" t="s">
+      <c r="E7" s="83" t="s">
         <v>312</v>
       </c>
       <c r="F7" s="19" t="s">
@@ -3560,7 +3556,7 @@
       <c r="I7" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="J7" s="64" t="s">
+      <c r="J7" s="63" t="s">
         <v>187</v>
       </c>
     </row>
@@ -3592,7 +3588,7 @@
       <c r="I8" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="J8" s="64" t="s">
+      <c r="J8" s="63" t="s">
         <v>188</v>
       </c>
     </row>
@@ -3609,7 +3605,7 @@
       <c r="D9" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="77" t="s">
+      <c r="E9" s="76" t="s">
         <v>254</v>
       </c>
       <c r="F9" s="19" t="s">
@@ -3624,7 +3620,7 @@
       <c r="I9" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="J9" s="64" t="s">
+      <c r="J9" s="63" t="s">
         <v>189</v>
       </c>
     </row>
@@ -3656,7 +3652,7 @@
       <c r="I10" s="18" t="s">
         <v>150</v>
       </c>
-      <c r="J10" s="64" t="s">
+      <c r="J10" s="63" t="s">
         <v>190</v>
       </c>
     </row>
@@ -3688,7 +3684,7 @@
       <c r="I11" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="J11" s="64" t="s">
+      <c r="J11" s="63" t="s">
         <v>191</v>
       </c>
     </row>
@@ -3720,7 +3716,7 @@
       <c r="I12" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="J12" s="64" t="s">
+      <c r="J12" s="63" t="s">
         <v>192</v>
       </c>
     </row>
@@ -3762,7 +3758,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3845,7 +3841,7 @@
       <c r="I3" s="17">
         <v>34658</v>
       </c>
-      <c r="J3" s="64" t="s">
+      <c r="J3" s="63" t="s">
         <v>176</v>
       </c>
     </row>
@@ -3875,7 +3871,7 @@
       <c r="I4" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="J4" s="64" t="s">
+      <c r="J4" s="63" t="s">
         <v>194</v>
       </c>
     </row>
@@ -3892,7 +3888,7 @@
       <c r="D5" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="63" t="s">
+      <c r="E5" s="62" t="s">
         <v>164</v>
       </c>
       <c r="F5" s="19" t="s">
@@ -3905,7 +3901,7 @@
       <c r="I5" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="J5" s="64" t="s">
+      <c r="J5" s="63" t="s">
         <v>168</v>
       </c>
     </row>
@@ -3922,7 +3918,7 @@
       <c r="D6" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="63" t="s">
+      <c r="E6" s="62" t="s">
         <v>164</v>
       </c>
       <c r="F6" s="19" t="s">
@@ -3935,7 +3931,7 @@
       <c r="I6" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="J6" s="64" t="s">
+      <c r="J6" s="63" t="s">
         <v>228</v>
       </c>
     </row>
@@ -3952,8 +3948,8 @@
       <c r="D7" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="85" t="s">
-        <v>273</v>
+      <c r="E7" s="84" t="s">
+        <v>162</v>
       </c>
       <c r="F7" s="19" t="s">
         <v>39</v>
@@ -3965,7 +3961,7 @@
       <c r="I7" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="J7" s="64" t="s">
+      <c r="J7" s="63" t="s">
         <v>229</v>
       </c>
     </row>
@@ -3982,7 +3978,7 @@
       <c r="D8" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E8" s="63" t="s">
+      <c r="E8" s="62" t="s">
         <v>164</v>
       </c>
       <c r="F8" s="19" t="s">
@@ -3995,7 +3991,7 @@
       <c r="I8" s="17" t="s">
         <v>193</v>
       </c>
-      <c r="J8" s="64" t="s">
+      <c r="J8" s="63" t="s">
         <v>196</v>
       </c>
     </row>
@@ -4025,7 +4021,7 @@
       <c r="I9" s="17">
         <v>17839</v>
       </c>
-      <c r="J9" s="64" t="s">
+      <c r="J9" s="63" t="s">
         <v>197</v>
       </c>
     </row>
@@ -4042,20 +4038,20 @@
       <c r="D10" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="85" t="s">
+      <c r="E10" s="84" t="s">
         <v>308</v>
       </c>
-      <c r="F10" s="85" t="s">
-        <v>39</v>
-      </c>
-      <c r="G10" s="88" t="s">
+      <c r="F10" s="84" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" s="87" t="s">
         <v>263</v>
       </c>
       <c r="H10" s="21"/>
       <c r="I10" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="J10" s="64" t="s">
+      <c r="J10" s="63" t="s">
         <v>230</v>
       </c>
     </row>
@@ -4080,8 +4076,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10E7F0DF-14BE-4BB8-BB6C-8815808B0B66}">
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView topLeftCell="A5" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4164,7 +4160,7 @@
       <c r="I3" s="18">
         <v>39035</v>
       </c>
-      <c r="J3" s="64" t="s">
+      <c r="J3" s="63" t="s">
         <v>166</v>
       </c>
     </row>
@@ -4192,7 +4188,7 @@
       <c r="I4" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="J4" s="64" t="s">
+      <c r="J4" s="63" t="s">
         <v>167</v>
       </c>
     </row>
@@ -4209,7 +4205,7 @@
       <c r="D5" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="85" t="s">
+      <c r="E5" s="84" t="s">
         <v>273</v>
       </c>
       <c r="F5" s="19" t="s">
@@ -4222,7 +4218,7 @@
       <c r="I5" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="J5" s="64" t="s">
+      <c r="J5" s="63" t="s">
         <v>235</v>
       </c>
     </row>
@@ -4252,7 +4248,7 @@
       <c r="I6" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="J6" s="64" t="s">
+      <c r="J6" s="63" t="s">
         <v>231</v>
       </c>
     </row>
@@ -4282,7 +4278,7 @@
       <c r="I7" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="J7" s="65" t="s">
+      <c r="J7" s="64" t="s">
         <v>164</v>
       </c>
     </row>
@@ -4312,7 +4308,7 @@
       <c r="I8" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="J8" s="64" t="s">
+      <c r="J8" s="63" t="s">
         <v>169</v>
       </c>
     </row>
@@ -4340,7 +4336,7 @@
       </c>
       <c r="H9" s="9"/>
       <c r="I9" s="18"/>
-      <c r="J9" s="64" t="s">
+      <c r="J9" s="63" t="s">
         <v>168</v>
       </c>
     </row>
@@ -4370,7 +4366,7 @@
       <c r="I10" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="J10" s="64" t="s">
+      <c r="J10" s="63" t="s">
         <v>170</v>
       </c>
     </row>
@@ -4400,7 +4396,7 @@
       <c r="I11" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="J11" s="65" t="s">
+      <c r="J11" s="64" t="s">
         <v>164</v>
       </c>
     </row>
@@ -4430,7 +4426,7 @@
       <c r="I12" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="J12" s="65" t="s">
+      <c r="J12" s="64" t="s">
         <v>164</v>
       </c>
     </row>
@@ -4460,7 +4456,7 @@
       <c r="I13" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="J13" s="64" t="s">
+      <c r="J13" s="63" t="s">
         <v>171</v>
       </c>
     </row>
@@ -4490,7 +4486,7 @@
       <c r="I14" s="18">
         <v>-1067.700435</v>
       </c>
-      <c r="J14" s="64" t="s">
+      <c r="J14" s="63" t="s">
         <v>172</v>
       </c>
     </row>
@@ -4520,7 +4516,7 @@
       <c r="I15" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="J15" s="64" t="s">
+      <c r="J15" s="63" t="s">
         <v>232</v>
       </c>
     </row>
@@ -4550,7 +4546,7 @@
       <c r="I16" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="J16" s="64" t="s">
+      <c r="J16" s="63" t="s">
         <v>236</v>
       </c>
     </row>
@@ -4576,7 +4572,7 @@
       <c r="I17" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="J17" s="64" t="s">
+      <c r="J17" s="63" t="s">
         <v>173</v>
       </c>
     </row>
@@ -4606,7 +4602,7 @@
       <c r="I18" s="18">
         <v>3703994</v>
       </c>
-      <c r="J18" s="64" t="s">
+      <c r="J18" s="63" t="s">
         <v>174</v>
       </c>
     </row>
@@ -4636,7 +4632,7 @@
       <c r="I19" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="J19" s="65" t="s">
+      <c r="J19" s="64" t="s">
         <v>164</v>
       </c>
     </row>
@@ -4666,7 +4662,7 @@
       <c r="I20" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="J20" s="64" t="s">
+      <c r="J20" s="63" t="s">
         <v>233</v>
       </c>
     </row>
@@ -4696,7 +4692,7 @@
       <c r="I21" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="J21" s="64" t="s">
+      <c r="J21" s="63" t="s">
         <v>234</v>
       </c>
     </row>
@@ -4726,7 +4722,7 @@
       <c r="I22" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="J22" s="65" t="s">
+      <c r="J22" s="64" t="s">
         <v>164</v>
       </c>
     </row>
@@ -4743,8 +4739,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B91B1FF-D207-4871-B787-27544A9D3030}">
   <dimension ref="A1:P47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F49" sqref="F49"/>
+    <sheetView topLeftCell="A32" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4820,10 +4816,10 @@
       <c r="H3" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="I3" s="66">
+      <c r="I3" s="65">
         <v>50004</v>
       </c>
-      <c r="J3" s="64" t="s">
+      <c r="J3" s="63" t="s">
         <v>176</v>
       </c>
     </row>
@@ -4852,10 +4848,10 @@
       <c r="H4" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="I4" s="66">
+      <c r="I4" s="65">
         <v>43</v>
       </c>
-      <c r="J4" s="64" t="s">
+      <c r="J4" s="63" t="s">
         <v>176</v>
       </c>
     </row>
@@ -4884,10 +4880,10 @@
       <c r="H5" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="I5" s="66">
+      <c r="I5" s="65">
         <v>1</v>
       </c>
-      <c r="J5" s="64" t="s">
+      <c r="J5" s="63" t="s">
         <v>176</v>
       </c>
     </row>
@@ -4916,10 +4912,10 @@
       <c r="H6" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="I6" s="66">
+      <c r="I6" s="65">
         <v>39035</v>
       </c>
-      <c r="J6" s="64" t="s">
+      <c r="J6" s="63" t="s">
         <v>176</v>
       </c>
     </row>
@@ -4948,10 +4944,10 @@
       <c r="H7" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="I7" s="66">
+      <c r="I7" s="65">
         <v>63</v>
       </c>
-      <c r="J7" s="64" t="s">
+      <c r="J7" s="63" t="s">
         <v>176</v>
       </c>
     </row>
@@ -4980,10 +4976,10 @@
       <c r="H8" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="I8" s="66">
+      <c r="I8" s="65">
         <v>371091</v>
       </c>
-      <c r="J8" s="64" t="s">
+      <c r="J8" s="63" t="s">
         <v>176</v>
       </c>
     </row>
@@ -5006,8 +5002,8 @@
       <c r="F9" s="34"/>
       <c r="G9" s="49"/>
       <c r="H9" s="38"/>
-      <c r="I9" s="67"/>
-      <c r="J9" s="64"/>
+      <c r="I9" s="66"/>
+      <c r="J9" s="63"/>
     </row>
     <row r="10" spans="1:10" s="52" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="52" t="s">
@@ -5022,22 +5018,22 @@
       <c r="D10" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="81" t="s">
+      <c r="E10" s="80" t="s">
         <v>313</v>
       </c>
-      <c r="F10" s="75" t="s">
-        <v>39</v>
-      </c>
-      <c r="G10" s="76" t="s">
+      <c r="F10" s="74" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" s="75" t="s">
         <v>39</v>
       </c>
       <c r="H10" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="I10" s="67" t="s">
-        <v>39</v>
-      </c>
-      <c r="J10" s="64" t="s">
+      <c r="I10" s="66" t="s">
+        <v>39</v>
+      </c>
+      <c r="J10" s="63" t="s">
         <v>195</v>
       </c>
     </row>
@@ -5054,7 +5050,7 @@
       <c r="D11" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="78" t="s">
+      <c r="E11" s="77" t="s">
         <v>315</v>
       </c>
       <c r="F11" s="24" t="s">
@@ -5066,10 +5062,10 @@
       <c r="H11" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="I11" s="68" t="s">
-        <v>39</v>
-      </c>
-      <c r="J11" s="64" t="s">
+      <c r="I11" s="67" t="s">
+        <v>39</v>
+      </c>
+      <c r="J11" s="63" t="s">
         <v>198</v>
       </c>
     </row>
@@ -5086,7 +5082,7 @@
       <c r="D12" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="E12" s="78" t="s">
+      <c r="E12" s="77" t="s">
         <v>261</v>
       </c>
       <c r="F12" s="24" t="s">
@@ -5098,10 +5094,10 @@
       <c r="H12" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="I12" s="68" t="s">
-        <v>39</v>
-      </c>
-      <c r="J12" s="64" t="s">
+      <c r="I12" s="67" t="s">
+        <v>39</v>
+      </c>
+      <c r="J12" s="63" t="s">
         <v>199</v>
       </c>
     </row>
@@ -5118,7 +5114,7 @@
       <c r="D13" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="E13" s="79" t="s">
+      <c r="E13" s="78" t="s">
         <v>314</v>
       </c>
       <c r="F13" s="24" t="s">
@@ -5130,10 +5126,10 @@
       <c r="H13" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="I13" s="68" t="s">
-        <v>39</v>
-      </c>
-      <c r="J13" s="64" t="s">
+      <c r="I13" s="67" t="s">
+        <v>39</v>
+      </c>
+      <c r="J13" s="63" t="s">
         <v>180</v>
       </c>
     </row>
@@ -5150,7 +5146,7 @@
       <c r="D14" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="E14" s="80" t="s">
+      <c r="E14" s="79" t="s">
         <v>247</v>
       </c>
       <c r="F14" s="44" t="s">
@@ -5162,10 +5158,10 @@
       <c r="H14" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="I14" s="68" t="s">
-        <v>39</v>
-      </c>
-      <c r="J14" s="64" t="s">
+      <c r="I14" s="67" t="s">
+        <v>39</v>
+      </c>
+      <c r="J14" s="63" t="s">
         <v>194</v>
       </c>
     </row>
@@ -5197,7 +5193,7 @@
       <c r="I15" s="18">
         <v>1</v>
       </c>
-      <c r="J15" s="64" t="s">
+      <c r="J15" s="63" t="s">
         <v>203</v>
       </c>
     </row>
@@ -5226,10 +5222,10 @@
       <c r="H16" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="I16" s="66">
+      <c r="I16" s="65">
         <v>5363</v>
       </c>
-      <c r="J16" s="64" t="s">
+      <c r="J16" s="63" t="s">
         <v>202</v>
       </c>
     </row>
@@ -5261,7 +5257,7 @@
       <c r="I17" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="J17" s="65" t="s">
+      <c r="J17" s="64" t="s">
         <v>164</v>
       </c>
     </row>
@@ -5293,7 +5289,7 @@
       <c r="I18" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="J18" s="65" t="s">
+      <c r="J18" s="64" t="s">
         <v>164</v>
       </c>
     </row>
@@ -5322,10 +5318,10 @@
       <c r="H19" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="I19" s="66" t="s">
+      <c r="I19" s="65" t="s">
         <v>157</v>
       </c>
-      <c r="J19" s="64" t="s">
+      <c r="J19" s="63" t="s">
         <v>237</v>
       </c>
     </row>
@@ -5357,7 +5353,7 @@
       <c r="I20" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="J20" s="65" t="s">
+      <c r="J20" s="64" t="s">
         <v>164</v>
       </c>
     </row>
@@ -5389,7 +5385,7 @@
       <c r="I21" s="18" t="s">
         <v>139</v>
       </c>
-      <c r="J21" s="64" t="s">
+      <c r="J21" s="63" t="s">
         <v>200</v>
       </c>
     </row>
@@ -5418,10 +5414,10 @@
       <c r="H22" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="I22" s="68" t="s">
-        <v>39</v>
-      </c>
-      <c r="J22" s="65" t="s">
+      <c r="I22" s="67" t="s">
+        <v>39</v>
+      </c>
+      <c r="J22" s="64" t="s">
         <v>164</v>
       </c>
     </row>
@@ -5453,7 +5449,7 @@
       <c r="I23" s="18">
         <v>5200</v>
       </c>
-      <c r="J23" s="64" t="s">
+      <c r="J23" s="63" t="s">
         <v>201</v>
       </c>
     </row>
@@ -5470,7 +5466,7 @@
       <c r="D24" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E24" s="61" t="s">
+      <c r="E24" s="60" t="s">
         <v>39</v>
       </c>
       <c r="F24" s="34" t="s">
@@ -5485,7 +5481,7 @@
       <c r="I24" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="J24" s="64" t="s">
+      <c r="J24" s="63" t="s">
         <v>240</v>
       </c>
     </row>
@@ -5517,7 +5513,7 @@
       <c r="I25" s="18">
         <v>0</v>
       </c>
-      <c r="J25" s="64" t="s">
+      <c r="J25" s="63" t="s">
         <v>204</v>
       </c>
     </row>
@@ -5549,7 +5545,7 @@
       <c r="I26" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="J26" s="64" t="s">
+      <c r="J26" s="63" t="s">
         <v>205</v>
       </c>
     </row>
@@ -5581,7 +5577,7 @@
       <c r="I27" s="18" t="s">
         <v>137</v>
       </c>
-      <c r="J27" s="64" t="s">
+      <c r="J27" s="63" t="s">
         <v>206</v>
       </c>
     </row>
@@ -5613,7 +5609,7 @@
       <c r="I28" s="18" t="s">
         <v>158</v>
       </c>
-      <c r="J28" s="64" t="s">
+      <c r="J28" s="63" t="s">
         <v>207</v>
       </c>
     </row>
@@ -5642,10 +5638,10 @@
       <c r="H29" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="I29" s="68" t="s">
-        <v>39</v>
-      </c>
-      <c r="J29" s="64" t="s">
+      <c r="I29" s="67" t="s">
+        <v>39</v>
+      </c>
+      <c r="J29" s="63" t="s">
         <v>241</v>
       </c>
     </row>
@@ -5662,7 +5658,7 @@
       <c r="D30" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E30" s="74">
+      <c r="E30" s="73">
         <v>44196</v>
       </c>
       <c r="F30" s="34" t="s">
@@ -5674,10 +5670,10 @@
       <c r="H30" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="I30" s="69">
+      <c r="I30" s="68">
         <v>44196</v>
       </c>
-      <c r="J30" s="64" t="s">
+      <c r="J30" s="63" t="s">
         <v>208</v>
       </c>
     </row>
@@ -5694,7 +5690,7 @@
       <c r="D31" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E31" s="74">
+      <c r="E31" s="73">
         <v>43831</v>
       </c>
       <c r="F31" s="34" t="s">
@@ -5706,10 +5702,10 @@
       <c r="H31" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="I31" s="69">
+      <c r="I31" s="68">
         <v>43831</v>
       </c>
-      <c r="J31" s="64" t="s">
+      <c r="J31" s="63" t="s">
         <v>209</v>
       </c>
     </row>
@@ -5741,7 +5737,7 @@
       <c r="I32" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="J32" s="65" t="s">
+      <c r="J32" s="64" t="s">
         <v>164</v>
       </c>
     </row>
@@ -5758,7 +5754,7 @@
       <c r="D33" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E33" s="61" t="s">
+      <c r="E33" s="60" t="s">
         <v>39</v>
       </c>
       <c r="F33" s="34" t="s">
@@ -5770,10 +5766,10 @@
       <c r="H33" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="I33" s="68" t="s">
-        <v>39</v>
-      </c>
-      <c r="J33" s="64" t="s">
+      <c r="I33" s="67" t="s">
+        <v>39</v>
+      </c>
+      <c r="J33" s="63" t="s">
         <v>210</v>
       </c>
     </row>
@@ -5805,7 +5801,7 @@
       <c r="I34" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="J34" s="65" t="s">
+      <c r="J34" s="64" t="s">
         <v>164</v>
       </c>
     </row>
@@ -5837,7 +5833,7 @@
       <c r="I35" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="J35" s="64" t="s">
+      <c r="J35" s="63" t="s">
         <v>238</v>
       </c>
     </row>
@@ -5869,7 +5865,7 @@
       <c r="I36" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="J36" s="64" t="s">
+      <c r="J36" s="63" t="s">
         <v>239</v>
       </c>
     </row>
@@ -5886,22 +5882,22 @@
       <c r="D37" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="E37" s="60" t="s">
+      <c r="E37" s="59" t="s">
         <v>39</v>
       </c>
       <c r="F37" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="G37" s="83">
+      <c r="G37" s="82">
         <v>44592</v>
       </c>
       <c r="H37" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="I37" s="70">
+      <c r="I37" s="69">
         <v>43874</v>
       </c>
-      <c r="J37" s="64" t="s">
+      <c r="J37" s="63" t="s">
         <v>211</v>
       </c>
     </row>
@@ -5930,10 +5926,10 @@
       <c r="H38" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="I38" s="71">
+      <c r="I38" s="70">
         <v>33187</v>
       </c>
-      <c r="J38" s="65" t="s">
+      <c r="J38" s="64" t="s">
         <v>164</v>
       </c>
     </row>
@@ -5962,10 +5958,10 @@
       <c r="H39" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="I39" s="68" t="s">
-        <v>39</v>
-      </c>
-      <c r="J39" s="64" t="s">
+      <c r="I39" s="67" t="s">
+        <v>39</v>
+      </c>
+      <c r="J39" s="63" t="s">
         <v>212</v>
       </c>
     </row>
@@ -5992,10 +5988,10 @@
         <v>39</v>
       </c>
       <c r="H40" s="37"/>
-      <c r="I40" s="68" t="s">
-        <v>39</v>
-      </c>
-      <c r="J40" s="64" t="s">
+      <c r="I40" s="67" t="s">
+        <v>39</v>
+      </c>
+      <c r="J40" s="63" t="s">
         <v>213</v>
       </c>
     </row>
@@ -6027,7 +6023,7 @@
       <c r="I41" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="J41" s="64" t="s">
+      <c r="J41" s="63" t="s">
         <v>242</v>
       </c>
     </row>
@@ -6056,10 +6052,10 @@
       <c r="H42" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="I42" s="68" t="s">
-        <v>39</v>
-      </c>
-      <c r="J42" s="65" t="s">
+      <c r="I42" s="67" t="s">
+        <v>39</v>
+      </c>
+      <c r="J42" s="64" t="s">
         <v>164</v>
       </c>
     </row>
@@ -6078,14 +6074,14 @@
       </c>
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
-      <c r="G43" s="89"/>
+      <c r="G43" s="88"/>
       <c r="H43" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="I43" s="68" t="s">
+      <c r="I43" s="67" t="s">
         <v>310</v>
       </c>
-      <c r="J43" s="64" t="s">
+      <c r="J43" s="63" t="s">
         <v>311</v>
       </c>
       <c r="K43" s="5"/>
@@ -6120,10 +6116,10 @@
       <c r="H44" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="I44" s="68" t="s">
-        <v>39</v>
-      </c>
-      <c r="J44" s="64" t="s">
+      <c r="I44" s="67" t="s">
+        <v>39</v>
+      </c>
+      <c r="J44" s="63" t="s">
         <v>214</v>
       </c>
     </row>
@@ -6155,7 +6151,7 @@
       <c r="I45" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="J45" s="65" t="s">
+      <c r="J45" s="64" t="s">
         <v>164</v>
       </c>
     </row>
@@ -6184,10 +6180,10 @@
       <c r="H46" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="I46" s="66" t="s">
+      <c r="I46" s="65" t="s">
         <v>134</v>
       </c>
-      <c r="J46" s="64" t="s">
+      <c r="J46" s="63" t="s">
         <v>215</v>
       </c>
     </row>
@@ -6219,7 +6215,7 @@
       <c r="I47" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="J47" s="64" t="s">
+      <c r="J47" s="63" t="s">
         <v>216</v>
       </c>
     </row>
@@ -6234,49 +6230,6 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37A68CD9-E6C8-4C1E-8A36-F76F66BA5935}">
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="59"/>
-      <c r="B1" s="59"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="59"/>
-      <c r="B2" s="59"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="59"/>
-      <c r="B3" s="59"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="59"/>
-      <c r="B4" s="59"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="59"/>
-      <c r="B5" s="59"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="59"/>
-      <c r="B6" s="59"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="59"/>
-      <c r="B7" s="59"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A5DE272-04F8-4611-B79A-B07C0092FE3A}">
   <dimension ref="B1:G11"/>
   <sheetViews>
@@ -6299,7 +6252,7 @@
       <c r="D1" t="s">
         <v>282</v>
       </c>
-      <c r="E1" s="87" t="s">
+      <c r="E1" s="86" t="s">
         <v>304</v>
       </c>
       <c r="G1" t="str">
@@ -6335,7 +6288,7 @@
       <c r="D3" t="s">
         <v>286</v>
       </c>
-      <c r="E3" s="87" t="s">
+      <c r="E3" s="86" t="s">
         <v>110</v>
       </c>
       <c r="G3" t="str">
@@ -6353,7 +6306,7 @@
       <c r="D4" t="s">
         <v>288</v>
       </c>
-      <c r="E4" s="87" t="s">
+      <c r="E4" s="86" t="s">
         <v>303</v>
       </c>
       <c r="G4" t="str">
@@ -6371,7 +6324,7 @@
       <c r="D5" t="s">
         <v>290</v>
       </c>
-      <c r="E5" s="87" t="s">
+      <c r="E5" s="86" t="s">
         <v>110</v>
       </c>
       <c r="G5" t="str">
@@ -6407,7 +6360,7 @@
       <c r="D7" t="s">
         <v>294</v>
       </c>
-      <c r="E7" s="87" t="s">
+      <c r="E7" s="86" t="s">
         <v>110</v>
       </c>
       <c r="G7" t="str">
@@ -6443,7 +6396,7 @@
       <c r="D9" t="s">
         <v>298</v>
       </c>
-      <c r="E9" s="87" t="s">
+      <c r="E9" s="86" t="s">
         <v>110</v>
       </c>
       <c r="G9" t="str">
@@ -6461,7 +6414,7 @@
       <c r="D10" t="s">
         <v>300</v>
       </c>
-      <c r="E10" s="87" t="s">
+      <c r="E10" s="86" t="s">
         <v>303</v>
       </c>
       <c r="G10" t="str">
@@ -6479,7 +6432,7 @@
       <c r="D11" t="s">
         <v>302</v>
       </c>
-      <c r="E11" s="87" t="s">
+      <c r="E11" s="86" t="s">
         <v>119</v>
       </c>
       <c r="G11" t="str">
